--- a/df.xlsx
+++ b/df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD8B369C-A943-4B53-940F-2C27D7568D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7392BB1-33B0-4BD2-B396-93A113380B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="13">
   <si>
     <t>?</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>censored</t>
+  </si>
+  <si>
+    <t>if(</t>
   </si>
 </sst>
 </file>
@@ -970,6 +973,9 @@
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">

--- a/df.xlsx
+++ b/df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7392BB1-33B0-4BD2-B396-93A113380B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7C38DD-670F-4E98-AED3-9CED905822A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -902,10 +902,13 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/df.xlsx
+++ b/df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7C38DD-670F-4E98-AED3-9CED905822A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EACCCCE-347C-48EC-89BA-91ACD7CAEDC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="11">
   <si>
     <t>?</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>alive.one</t>
-  </si>
-  <si>
-    <t>censored</t>
-  </si>
-  <si>
-    <t>if(</t>
   </si>
 </sst>
 </file>
@@ -899,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,7 +904,7 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -941,11 +935,8 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11</v>
       </c>
@@ -976,11 +967,8 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>19</v>
       </c>
@@ -1012,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>16</v>
       </c>
@@ -1044,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>57</v>
       </c>
@@ -1076,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>19</v>
       </c>
@@ -1108,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>26</v>
       </c>
@@ -1140,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>13</v>
       </c>
@@ -1172,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50</v>
       </c>
@@ -1204,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>19</v>
       </c>
@@ -1236,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>25</v>
       </c>
@@ -1268,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1300,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>52</v>
       </c>
@@ -1332,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>52</v>
       </c>
@@ -1364,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>44</v>
       </c>
@@ -1396,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.5</v>
       </c>
@@ -2452,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>20</v>
       </c>
@@ -2484,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.25</v>
       </c>
@@ -2516,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -2544,11 +2532,8 @@
       <c r="J51">
         <v>2</v>
       </c>
-      <c r="K51" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2580,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>7</v>
       </c>
@@ -2612,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>10</v>
       </c>
@@ -2644,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>12</v>
       </c>
@@ -2676,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2708,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>10</v>
       </c>
@@ -2740,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>45</v>
       </c>
@@ -2772,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>22</v>
       </c>
@@ -2804,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>53</v>
       </c>
@@ -2836,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>38</v>
       </c>
@@ -2868,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>26</v>
       </c>
@@ -2900,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>9</v>
       </c>
@@ -2932,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>26</v>
       </c>

--- a/df.xlsx
+++ b/df.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EACCCCE-347C-48EC-89BA-91ACD7CAEDC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C23EBB44-6213-4BE6-BD44-746BFEFD7668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020"/>
   </bookViews>
   <sheets>
-    <sheet name="echocardiogram" sheetId="1" r:id="rId1"/>
+    <sheet name="df" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -22,43 +22,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="11">
   <si>
-    <t>?</t>
+    <t>Survival</t>
   </si>
   <si>
-    <t>survival</t>
+    <t>Alive at End</t>
   </si>
   <si>
-    <t>epss</t>
+    <t>Age</t>
   </si>
   <si>
-    <t>lvdd</t>
+    <t>P.Effusion</t>
   </si>
   <si>
-    <t>wall motion score</t>
+    <t>F.Shortening</t>
   </si>
   <si>
-    <t>wall motion index</t>
+    <t>EPSS</t>
   </si>
   <si>
-    <t>frac</t>
+    <t>LVDD</t>
   </si>
   <si>
-    <t>p.effusion</t>
+    <t>WMS</t>
   </si>
   <si>
-    <t>p.age</t>
+    <t>WMI</t>
   </si>
   <si>
-    <t>alive.end</t>
+    <t>Alive after 1 Year</t>
   </si>
   <si>
-    <t>alive.one</t>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,48 +892,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="8" max="8" width="13" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1488,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>62.529000000000003</v>
+        <v>62.53</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1733,7 +1728,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J26" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -1765,7 +1760,7 @@
         <v>1.667</v>
       </c>
       <c r="J27" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -1797,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -1814,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F29">
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -1829,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -1846,22 +1841,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -1913,7 +1908,7 @@
         <v>0.15</v>
       </c>
       <c r="F32" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G32">
         <v>5.05</v>
@@ -1925,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -1957,7 +1952,7 @@
         <v>1.17</v>
       </c>
       <c r="J33" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -1968,19 +1963,19 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H34">
         <v>6</v>
@@ -1989,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -2021,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -2038,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F36">
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H36">
         <v>14</v>
@@ -2102,10 +2097,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38">
         <v>5.31</v>
@@ -2140,7 +2135,7 @@
         <v>23.6</v>
       </c>
       <c r="G39" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H39">
         <v>21.5</v>
@@ -2169,7 +2164,7 @@
         <v>0.51</v>
       </c>
       <c r="F40" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G40">
         <v>3.88</v>
@@ -2207,13 +2202,13 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="H41" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -2329,7 +2324,7 @@
         <v>0.33</v>
       </c>
       <c r="F45" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G45">
         <v>3.59</v>
@@ -2373,7 +2368,7 @@
         <v>1.45</v>
       </c>
       <c r="J46" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -2393,10 +2388,10 @@
         <v>0.09</v>
       </c>
       <c r="F47" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H47">
         <v>12</v>
@@ -2405,7 +2400,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -2425,10 +2420,10 @@
         <v>0.12</v>
       </c>
       <c r="F48" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H48">
         <v>9</v>
@@ -2486,13 +2481,13 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H50">
         <v>23</v>
@@ -2506,28 +2501,28 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H51" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -2556,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2582,10 +2577,10 @@
         <v>0.27</v>
       </c>
       <c r="F53" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H53">
         <v>9</v>
@@ -2626,7 +2621,7 @@
         <v>1.38</v>
       </c>
       <c r="J54" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
@@ -2838,7 +2833,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F61" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G61">
         <v>4.41</v>
@@ -2850,7 +2845,7 @@
         <v>1.167</v>
       </c>
       <c r="J61" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
@@ -2902,7 +2897,7 @@
         <v>0.12</v>
       </c>
       <c r="F63" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G63">
         <v>6.78</v>
@@ -2914,7 +2909,7 @@
         <v>1.39</v>
       </c>
       <c r="J63" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
@@ -2978,7 +2973,7 @@
         <v>1.37</v>
       </c>
       <c r="J65" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
@@ -3010,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
@@ -3074,7 +3069,7 @@
         <v>2.5</v>
       </c>
       <c r="J68" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
@@ -3330,7 +3325,7 @@
         <v>2.39</v>
       </c>
       <c r="J76" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
@@ -3394,7 +3389,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J78" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
@@ -3405,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3490,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
@@ -3522,7 +3517,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J82" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
@@ -3586,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -3635,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H86">
         <v>28</v>
@@ -3682,7 +3677,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J87" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -3714,7 +3709,7 @@
         <v>1.41</v>
       </c>
       <c r="J88" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
@@ -3746,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
@@ -3810,7 +3805,7 @@
         <v>1.04</v>
       </c>
       <c r="J91" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
@@ -3842,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
@@ -3874,7 +3869,7 @@
         <v>1.27</v>
       </c>
       <c r="J93" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
@@ -3938,12 +3933,12 @@
         <v>1.06</v>
       </c>
       <c r="J95" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -4002,7 +3997,7 @@
         <v>1.5</v>
       </c>
       <c r="J97" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
@@ -4066,7 +4061,7 @@
         <v>1.5</v>
       </c>
       <c r="J99" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
@@ -4150,7 +4145,7 @@
         <v>0.17</v>
       </c>
       <c r="F102" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G102">
         <v>4.6900000000000004</v>
@@ -4162,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
@@ -4182,7 +4177,7 @@
         <v>0.2</v>
       </c>
       <c r="F103" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G103">
         <v>4.2300000000000004</v>
@@ -4258,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
@@ -4386,7 +4381,7 @@
         <v>1.23</v>
       </c>
       <c r="J109" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
@@ -4482,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
@@ -4514,7 +4509,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J113" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
@@ -4546,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
@@ -4578,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
@@ -4610,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
@@ -4642,7 +4637,7 @@
         <v>1.95</v>
       </c>
       <c r="J117" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
@@ -4653,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -4674,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
@@ -4706,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
@@ -4738,7 +4733,7 @@
         <v>1.95</v>
       </c>
       <c r="J120" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
@@ -4749,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -4770,7 +4765,7 @@
         <v>1.2</v>
       </c>
       <c r="J121" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
@@ -4802,7 +4797,7 @@
         <v>1.27</v>
       </c>
       <c r="J122" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
@@ -4834,7 +4829,7 @@
         <v>1.375</v>
       </c>
       <c r="J123" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
@@ -4866,7 +4861,7 @@
         <v>1.375</v>
       </c>
       <c r="J124" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
@@ -4898,7 +4893,7 @@
         <v>1.73</v>
       </c>
       <c r="J125" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
@@ -4930,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
@@ -4941,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -4962,7 +4957,7 @@
         <v>1.08</v>
       </c>
       <c r="J127" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
@@ -4994,7 +4989,7 @@
         <v>1.27</v>
       </c>
       <c r="J128" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
@@ -5026,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
@@ -5058,7 +5053,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J130" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
@@ -5090,7 +5085,7 @@
         <v>1.21</v>
       </c>
       <c r="J131" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
@@ -5122,7 +5117,7 @@
         <v>1.36</v>
       </c>
       <c r="J132" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
@@ -5154,7 +5149,7 @@
         <v>1.409</v>
       </c>
       <c r="J133" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/df.xlsx
+++ b/df.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,24 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C23EBB44-6213-4BE6-BD44-746BFEFD7668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC1BE6A-6D05-443A-A0CC-5FB3DA43BCF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="11">
   <si>
     <t>Survival</t>
-  </si>
-  <si>
-    <t>Alive at End</t>
   </si>
   <si>
     <t>Age</t>
@@ -49,16 +56,19 @@
     <t>WMI</t>
   </si>
   <si>
-    <t>Alive after 1 Year</t>
+    <t>?</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Alive.E</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,10 +902,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -904,796 +916,820 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="str">
+        <f>IF(C2=0,"1","0")</f>
+        <v>1</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>71</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>0.26</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>14</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">IF(C3=0,"1","0")</f>
+        <v>1</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>72</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>0.38</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>14</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.7</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>55</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0.26</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3.42</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>14</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>57</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>60</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.253</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>12.061999999999999</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4.6029999999999998</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>16</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.45</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>57</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.16</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>22</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5.75</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>18</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2.25</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>26</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>68</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>0.26</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4.3099999999999996</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>12</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>62</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0.23</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>31</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5.43</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>22.5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.875</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>60</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0.33</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5.25</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>14</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>46</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>0.34</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>5.09</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>16</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.1399999999999999</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>25</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>54</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>13</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4.49</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>15.5</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.19</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>77</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>0.13</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>16</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4.2300000000000004</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>18</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.8</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>52</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>62</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>0.45</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>9</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3.6</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>16</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.1399999999999999</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>52</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>73</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0.33</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>6</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>14</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>44</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>60</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>0.15</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>10</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3.73</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>14</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.5</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>62</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>0.12</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>23</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>5.8</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>11.67</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2.33</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>24</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>55</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0.25</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>12.063000000000001</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>4.29</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>14</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.5</v>
       </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>69</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>0.26</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>11</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>18</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1.64</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.5</v>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>62.53</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>20</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>5.2</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>24</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>1</v>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>66</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>0.09</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>17</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>5.819</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>8</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1.333</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>66</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>0.22</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>15</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>5.4</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>27</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2.25</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.75</v>
       </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>69</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>0.15</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>12</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>5.39</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>19.5</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1.625</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.75</v>
       </c>
-      <c r="B23">
-        <v>1</v>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>85</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>0.18</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>19</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>5.46</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>13.83</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1.38</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.5</v>
       </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>73</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0.23</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>12.733000000000001</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>6.06</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>7.5</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1.5</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>71</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>0.17</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>8</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1703,986 +1739,1020 @@
       <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>64</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>0.19</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>5.9</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3.48</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>10</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.1100000000000001</v>
-      </c>
-      <c r="J26" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>29</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>54</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>0.3</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>7</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>3.85</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>10</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1.667</v>
-      </c>
-      <c r="J27" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>29</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>35</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>0.3</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>5</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>4.17</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>14</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>10</v>
+      <c r="J28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>0</v>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>55</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29">
         <v>7</v>
       </c>
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29">
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29">
         <v>2</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>10</v>
+      <c r="J29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.25</v>
       </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>75</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>36</v>
       </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>55</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
       <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>0.21</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>4.2</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>4.16</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>14</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.56</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32">
-        <v>1</v>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>65</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>0.15</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>5.05</v>
+      </c>
+      <c r="I32">
         <v>10</v>
       </c>
-      <c r="G32">
-        <v>5.05</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>10</v>
+      <c r="J32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33">
-        <v>1</v>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>52</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
       <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>0.17</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>17.2</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>5.32</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>14</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>1.17</v>
-      </c>
-      <c r="J33" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34">
         <v>12</v>
       </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34">
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34">
         <v>6</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>3</v>
-      </c>
-      <c r="J34" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>27</v>
       </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>47</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>0.4</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>5.12</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>3.1</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>12</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>10</v>
+      <c r="J35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>0</v>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>63</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36">
         <v>10</v>
       </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36">
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36">
         <v>14</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>1.17</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>26</v>
       </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>61</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
       <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>0.61</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>13.1</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>4.07</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>13</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>1.625</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>16</v>
       </c>
-      <c r="B38">
-        <v>0</v>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>63</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
+      <c r="E38">
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38">
         <v>5.31</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>5</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
-      <c r="B39">
-        <v>1</v>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
         <v>65</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>0.06</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>23.6</v>
       </c>
-      <c r="G39" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39">
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39">
         <v>21.5</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>2.15</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>19</v>
       </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>68</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>0.51</v>
       </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40">
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40">
         <v>3.88</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>15</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>1.67</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>31</v>
       </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>80</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>0.41</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>5.4</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>4.3600000000000003</v>
       </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>10</v>
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>32</v>
       </c>
-      <c r="B42">
-        <v>0</v>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>54</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
       <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>0.35</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>3.63</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>11</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1.222</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>16</v>
       </c>
-      <c r="B43">
-        <v>0</v>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
         <v>70</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
       <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>0.27</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>4.7</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>4.49</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>22</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>2</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>40</v>
       </c>
-      <c r="B44">
-        <v>0</v>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
         <v>79</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
       <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <v>0.15</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>17.5</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>13</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>1.3</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>46</v>
       </c>
-      <c r="B45">
-        <v>0</v>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
         <v>56</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
       <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>0.33</v>
       </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45">
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45">
         <v>3.59</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>14</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2</v>
       </c>
-      <c r="B46">
-        <v>1</v>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
         <v>67</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
       <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>0.44</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>9</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>3.96</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>17.5</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1.45</v>
-      </c>
-      <c r="J46" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>37</v>
       </c>
-      <c r="B47">
-        <v>0</v>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
         <v>64</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
       <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <v>0.09</v>
       </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
       <c r="G47" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47">
         <v>12</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>2</v>
-      </c>
-      <c r="J47" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>19.5</v>
       </c>
-      <c r="B48">
-        <v>1</v>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
         <v>81</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
       <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>0.12</v>
       </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
       <c r="G48" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="H48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48">
         <v>9</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>1.25</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>20</v>
       </c>
-      <c r="B49">
-        <v>1</v>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
         <v>59</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
       <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>0.03</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>21.3</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>6.29</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>17</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>1.31</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.25</v>
       </c>
-      <c r="B50">
-        <v>1</v>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
         <v>63</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
+      <c r="E50">
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50">
         <v>23</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>77</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" t="s">
-        <v>10</v>
+        <v>56</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0.04</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>10</v>
-      </c>
-      <c r="J51">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="J51" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E52">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>14</v>
-      </c>
-      <c r="G52">
-        <v>5</v>
+        <v>0.27</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>9</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>7</v>
-      </c>
-      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C53">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E53">
-        <v>0.27</v>
-      </c>
-      <c r="F53" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0.24</v>
+      </c>
+      <c r="G53">
+        <v>14.8</v>
       </c>
       <c r="H53">
-        <v>9</v>
+        <v>5.26</v>
       </c>
       <c r="I53">
-        <v>1.5</v>
+        <v>18</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>10</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E54">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>14.8</v>
+        <v>0.3</v>
       </c>
       <c r="G54">
-        <v>5.26</v>
+        <v>9.4</v>
       </c>
       <c r="H54">
-        <v>18</v>
+        <v>3.49</v>
       </c>
       <c r="I54">
-        <v>1.38</v>
-      </c>
-      <c r="J54" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>12</v>
-      </c>
-      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C55">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E55">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>9.4</v>
+        <v>0.01</v>
       </c>
       <c r="G55">
-        <v>3.49</v>
+        <v>24.6</v>
       </c>
       <c r="H55">
-        <v>14</v>
+        <v>5.65</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C56">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E56">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>24.6</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G56">
-        <v>5.65</v>
+        <v>15.6</v>
       </c>
       <c r="H56">
-        <v>39</v>
+        <v>6.15</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2690,511 +2760,527 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>10</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E57">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>15.6</v>
+        <v>0.15</v>
       </c>
       <c r="G57">
-        <v>6.15</v>
+        <v>13</v>
       </c>
       <c r="H57">
-        <v>14</v>
+        <v>4.57</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>45</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E58">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="G58">
-        <v>4.57</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H58">
-        <v>13</v>
+        <v>4.37</v>
       </c>
       <c r="I58">
-        <v>1.08</v>
+        <v>12.33</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>22</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E59">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>18.600000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G59">
-        <v>4.37</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H59">
-        <v>12.33</v>
+        <v>5.3</v>
       </c>
       <c r="I59">
-        <v>1.37</v>
+        <v>23</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>53</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E60">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G60">
-        <v>5.3</v>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
       </c>
       <c r="H60">
-        <v>23</v>
+        <v>4.41</v>
       </c>
       <c r="I60">
-        <v>2.2999999999999998</v>
+        <v>14</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1.167</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>38</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E61">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F61" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0.17</v>
       </c>
       <c r="G61">
-        <v>4.41</v>
+        <v>11.9</v>
       </c>
       <c r="H61">
-        <v>14</v>
+        <v>5.15</v>
       </c>
       <c r="I61">
-        <v>1.167</v>
-      </c>
-      <c r="J61" t="s">
-        <v>10</v>
+        <v>10.5</v>
+      </c>
+      <c r="J61">
+        <v>1.05</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>26</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E62">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>11.9</v>
-      </c>
-      <c r="G62">
-        <v>5.15</v>
+        <v>0.12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
       </c>
       <c r="H62">
-        <v>10.5</v>
+        <v>6.78</v>
       </c>
       <c r="I62">
-        <v>1.05</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>9</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E63">
-        <v>0.12</v>
-      </c>
-      <c r="F63" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0.187</v>
       </c>
       <c r="G63">
-        <v>6.78</v>
+        <v>12</v>
       </c>
       <c r="H63">
-        <v>16.670000000000002</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I63">
-        <v>1.39</v>
-      </c>
-      <c r="J63" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="J63">
+        <v>1.18</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>26</v>
-      </c>
-      <c r="B64">
+        <v>0.5</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C64">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E64">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>12</v>
+        <v>0.13</v>
       </c>
       <c r="G64">
-        <v>5.0199999999999996</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H64">
-        <v>13</v>
+        <v>4.96</v>
       </c>
       <c r="I64">
-        <v>1.18</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>0.5</v>
-      </c>
-      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C65">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E65">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>16.399999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="G65">
-        <v>4.96</v>
+        <v>10.3</v>
       </c>
       <c r="H65">
-        <v>17.829999999999998</v>
+        <v>4.68</v>
       </c>
       <c r="I65">
-        <v>1.37</v>
-      </c>
-      <c r="J65" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>12</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E66">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>10.3</v>
+        <v>0.16</v>
       </c>
       <c r="G66">
-        <v>4.68</v>
+        <v>13.2</v>
       </c>
       <c r="H66">
+        <v>5.26</v>
+      </c>
+      <c r="I66">
         <v>11</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>10</v>
+      <c r="J66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>49</v>
-      </c>
-      <c r="B67">
+        <v>0.75</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B130" si="1">IF(C67=0,"1","0")</f>
         <v>0</v>
       </c>
       <c r="C67">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E67">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>13.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G67">
-        <v>5.26</v>
+        <v>11.4</v>
       </c>
       <c r="H67">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>0.75</v>
-      </c>
-      <c r="B68">
+        <v>49</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E68">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>11.4</v>
+        <v>0.25</v>
       </c>
       <c r="G68">
-        <v>4.75</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H68">
-        <v>10</v>
+        <v>5.57</v>
       </c>
       <c r="I68">
-        <v>2.5</v>
-      </c>
-      <c r="J68" t="s">
-        <v>10</v>
+        <v>5.5</v>
+      </c>
+      <c r="J68">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>49</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E69">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>9.6999999999999993</v>
+        <v>0.36</v>
       </c>
       <c r="G69">
-        <v>5.57</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H69">
-        <v>5.5</v>
+        <v>5.78</v>
       </c>
       <c r="I69">
-        <v>1.1000000000000001</v>
+        <v>12</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>47</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E70">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>8.8000000000000007</v>
+        <v>0.06</v>
       </c>
       <c r="G70">
-        <v>5.78</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H70">
-        <v>12</v>
+        <v>5.62</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>13.67</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1.367</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>41</v>
-      </c>
-      <c r="B71">
+        <v>0.25</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C71">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E71">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>16.100000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="G71">
-        <v>5.62</v>
+        <v>12.2</v>
       </c>
       <c r="H71">
-        <v>13.67</v>
+        <v>5.2</v>
       </c>
       <c r="I71">
-        <v>1.367</v>
+        <v>24</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72">
+        <v>33</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>56</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
         <v>0.25</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>86</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="F72">
-        <v>12.2</v>
-      </c>
       <c r="G72">
-        <v>5.2</v>
+        <v>11</v>
       </c>
       <c r="H72">
-        <v>24</v>
+        <v>4.72</v>
       </c>
       <c r="I72">
-        <v>2.1800000000000002</v>
+        <v>11</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3202,223 +3288,230 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>33</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>11</v>
+        <v>0.12</v>
       </c>
       <c r="G73">
-        <v>4.72</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H73">
-        <v>11</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>29</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E74">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>10.199999999999999</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G74">
-        <v>4.3099999999999996</v>
+        <v>7.5</v>
       </c>
       <c r="H74">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="I74">
-        <v>1.67</v>
+        <v>13</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>41</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E75">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>7.5</v>
+        <v>0.06</v>
       </c>
       <c r="G75">
-        <v>4.75</v>
+        <v>30.1</v>
       </c>
       <c r="H75">
-        <v>13</v>
+        <v>5.95</v>
       </c>
       <c r="I75">
-        <v>1.08</v>
+        <v>21.5</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>26</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E76">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>30.1</v>
+        <v>0.217</v>
       </c>
       <c r="G76">
-        <v>5.95</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H76">
-        <v>21.5</v>
+        <v>4.54</v>
       </c>
       <c r="I76">
-        <v>2.39</v>
-      </c>
-      <c r="J76" t="s">
-        <v>10</v>
+        <v>16.5</v>
+      </c>
+      <c r="J76">
+        <v>1.18</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77">
+        <v>0.25</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>68</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0.22</v>
+      </c>
+      <c r="G77">
+        <v>21.7</v>
+      </c>
+      <c r="H77">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I77">
         <v>15</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>54</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0.217</v>
-      </c>
-      <c r="F77">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="G77">
-        <v>4.54</v>
-      </c>
-      <c r="H77">
-        <v>16.5</v>
-      </c>
-      <c r="I77">
-        <v>1.18</v>
-      </c>
       <c r="J77">
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>0.25</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
+        <v>0.03</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>68</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
       </c>
       <c r="E78">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>21.7</v>
+        <v>0.26</v>
       </c>
       <c r="G78">
-        <v>4.8499999999999996</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H78">
-        <v>15</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="I78">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="J78" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="J78">
+        <v>2.1</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>0.03</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E79">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>19.399999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G79">
-        <v>4.7699999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="H79">
-        <v>21</v>
+        <v>4.58</v>
       </c>
       <c r="I79">
-        <v>2.1</v>
+        <v>14</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -3426,671 +3519,692 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>12</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
         <v>0.2</v>
       </c>
-      <c r="F80">
-        <v>7.1</v>
-      </c>
       <c r="G80">
-        <v>4.58</v>
+        <v>5</v>
       </c>
       <c r="H80">
-        <v>14</v>
+        <v>5.2</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>32</v>
       </c>
-      <c r="B81">
-        <v>0</v>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E81">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>0.06</v>
       </c>
       <c r="G81">
-        <v>5.2</v>
+        <v>23.6</v>
       </c>
       <c r="H81">
-        <v>8</v>
+        <v>6.74</v>
       </c>
       <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J81">
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>32</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E82">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>23.6</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G82">
-        <v>6.74</v>
+        <v>16.8</v>
       </c>
       <c r="H82">
-        <v>12</v>
+        <v>4.16</v>
       </c>
       <c r="I82">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J82" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="J82">
+        <v>1.5</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>27</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="E83">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>16.8</v>
+        <v>0.25</v>
       </c>
       <c r="G83">
-        <v>4.16</v>
+        <v>6</v>
       </c>
       <c r="H83">
-        <v>18</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="I83">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>23</v>
-      </c>
-      <c r="B84">
+        <v>0.75</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C84">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E84">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>6</v>
+        <v>0.05</v>
       </c>
       <c r="G84">
-        <v>4.4800000000000004</v>
+        <v>10</v>
       </c>
       <c r="H84">
-        <v>11</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="J84">
+        <v>1.36</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.75</v>
       </c>
-      <c r="B85">
-        <v>1</v>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E85">
-        <v>0.05</v>
-      </c>
-      <c r="F85">
-        <v>10</v>
-      </c>
-      <c r="G85">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="H85">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" t="s">
+        <v>8</v>
       </c>
       <c r="I85">
-        <v>1.36</v>
+        <v>28</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>0.75</v>
-      </c>
-      <c r="B86">
+        <v>34</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C86">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" t="s">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G86">
+        <v>25</v>
       </c>
       <c r="H86">
-        <v>28</v>
+        <v>6.21</v>
       </c>
       <c r="I86">
-        <v>2.33</v>
+        <v>11.5</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>34</v>
-      </c>
-      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C87">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E87">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>25</v>
+        <v>0.05</v>
       </c>
       <c r="G87">
-        <v>6.21</v>
+        <v>14.8</v>
       </c>
       <c r="H87">
-        <v>11.5</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="I87">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="J87" t="s">
-        <v>10</v>
+        <v>15.5</v>
+      </c>
+      <c r="J87">
+        <v>1.41</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E88">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>14.8</v>
+        <v>0.16</v>
       </c>
       <c r="G88">
-        <v>4.1399999999999997</v>
+        <v>19.2</v>
       </c>
       <c r="H88">
-        <v>15.5</v>
+        <v>5.25</v>
       </c>
       <c r="I88">
-        <v>1.41</v>
-      </c>
-      <c r="J88" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>21</v>
-      </c>
-      <c r="B89">
+        <v>55</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C89">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E89">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>19.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G89">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H89">
-        <v>11</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="J89">
+        <v>1.83</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>55</v>
-      </c>
-      <c r="B90">
+        <v>15</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C90">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E90">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>5.5</v>
+        <v>0.18</v>
       </c>
       <c r="G90">
-        <v>4.4800000000000004</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H90">
-        <v>22</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="I90">
-        <v>1.83</v>
+        <v>13.5</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>15</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E91">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>8.6999999999999993</v>
+        <v>0.155</v>
       </c>
       <c r="G91">
-        <v>4.5599999999999996</v>
+        <v>11.3</v>
       </c>
       <c r="H91">
-        <v>13.5</v>
+        <v>5.16</v>
       </c>
       <c r="I91">
-        <v>1.04</v>
-      </c>
-      <c r="J91" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>0.5</v>
-      </c>
-      <c r="B92">
+        <v>35</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C92">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E92">
-        <v>0.155</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>11.3</v>
+        <v>0.3</v>
       </c>
       <c r="G92">
-        <v>5.16</v>
+        <v>6.6</v>
       </c>
       <c r="H92">
-        <v>13</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="J92">
+        <v>1.27</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>35</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E93">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>6.6</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="G93">
-        <v>4.3600000000000003</v>
+        <v>9.1</v>
       </c>
       <c r="H93">
-        <v>14</v>
+        <v>4.04</v>
       </c>
       <c r="I93">
-        <v>1.27</v>
-      </c>
-      <c r="J93" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>53</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E94">
-        <v>0.34399999999999997</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>9.1</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="G94">
-        <v>4.04</v>
+        <v>16.5</v>
       </c>
       <c r="H94">
-        <v>9</v>
+        <v>5.36</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>12.67</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>33</v>
       </c>
-      <c r="B95">
-        <v>0</v>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E95">
-        <v>0.27200000000000002</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>16.5</v>
+        <v>0.25</v>
       </c>
       <c r="G95">
-        <v>5.36</v>
+        <v>5.6</v>
       </c>
       <c r="H95">
-        <v>12.67</v>
+        <v>3.87</v>
       </c>
       <c r="I95">
-        <v>1.06</v>
-      </c>
-      <c r="J95" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="J95">
+        <v>1.5</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
+      <c r="A96">
+        <v>40</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
         <v>0.2</v>
       </c>
-      <c r="F96">
-        <v>9.4</v>
-      </c>
       <c r="G96">
-        <v>4.0199999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="H96">
-        <v>15.67</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="I96">
-        <v>1.42</v>
+        <v>12.5</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>33</v>
       </c>
-      <c r="B97">
-        <v>0</v>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E97">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="G97">
-        <v>3.87</v>
+        <v>9.1</v>
       </c>
       <c r="H97">
+        <v>3.42</v>
+      </c>
+      <c r="I97">
         <v>18</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>1.5</v>
-      </c>
-      <c r="J97" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>40</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E98">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>4.8</v>
+        <v>0.16</v>
       </c>
       <c r="G98">
-        <v>4.5599999999999996</v>
+        <v>8.5</v>
       </c>
       <c r="H98">
-        <v>12.5</v>
+        <v>5.47</v>
       </c>
       <c r="I98">
-        <v>1.04</v>
+        <v>16</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>33</v>
-      </c>
-      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C99">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E99">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>9.1</v>
+        <v>0.17</v>
       </c>
       <c r="G99">
-        <v>3.42</v>
+        <v>28.9</v>
       </c>
       <c r="H99">
-        <v>18</v>
+        <v>6.73</v>
       </c>
       <c r="I99">
-        <v>1.5</v>
-      </c>
-      <c r="J99" t="s">
-        <v>10</v>
+        <v>26.08</v>
+      </c>
+      <c r="J99">
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>5</v>
-      </c>
-      <c r="B100">
+        <v>31</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C100">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E100">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>8.5</v>
-      </c>
-      <c r="G100">
-        <v>5.47</v>
+        <v>0.17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>8</v>
       </c>
       <c r="H100">
-        <v>16</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="I100">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -4098,31 +4212,32 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>4</v>
-      </c>
-      <c r="B101">
+        <v>33</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C101">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E101">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>28.9</v>
-      </c>
-      <c r="G101">
-        <v>6.73</v>
+        <v>0.2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>8</v>
       </c>
       <c r="H101">
-        <v>26.08</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="I101">
-        <v>2.0099999999999998</v>
+        <v>12</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -4130,159 +4245,164 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>31</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E102">
-        <v>0.17</v>
-      </c>
-      <c r="F102" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0.38</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>4.55</v>
+      </c>
+      <c r="I102">
         <v>10</v>
       </c>
-      <c r="G102">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="H102">
-        <v>10</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102" t="s">
-        <v>10</v>
+      <c r="J102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>33</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E103">
-        <v>0.2</v>
-      </c>
-      <c r="F103" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0.25800000000000001</v>
       </c>
       <c r="G103">
-        <v>4.2300000000000004</v>
+        <v>11.8</v>
       </c>
       <c r="H103">
-        <v>12</v>
+        <v>4.87</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>22</v>
-      </c>
-      <c r="B104">
+        <v>1.25</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C104">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E104">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G104">
-        <v>4.55</v>
+        <v>6.9</v>
       </c>
       <c r="H104">
-        <v>10</v>
+        <v>3.52</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>18.16</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>25</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E105">
-        <v>0.25800000000000001</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>11.8</v>
+        <v>0.17</v>
       </c>
       <c r="G105">
-        <v>4.87</v>
+        <v>14.3</v>
       </c>
       <c r="H105">
-        <v>11</v>
+        <v>5.49</v>
       </c>
       <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="J105" t="s">
-        <v>10</v>
+        <v>13.5</v>
+      </c>
+      <c r="J105">
+        <v>1.5</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>1.25</v>
-      </c>
-      <c r="B106">
+        <v>25</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C106">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E106">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>6.9</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="G106">
-        <v>3.52</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H106">
-        <v>18.16</v>
+        <v>4.29</v>
       </c>
       <c r="I106">
-        <v>1.51</v>
+        <v>11</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -4292,125 +4412,129 @@
       <c r="A107">
         <v>24</v>
       </c>
-      <c r="B107">
-        <v>0</v>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E107">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>14.3</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G107">
-        <v>5.49</v>
+        <v>7</v>
       </c>
       <c r="H107">
+        <v>4.12</v>
+      </c>
+      <c r="I107">
         <v>13.5</v>
       </c>
-      <c r="I107">
-        <v>1.5</v>
-      </c>
       <c r="J107">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>25</v>
-      </c>
-      <c r="B108">
+        <v>0.75</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C108">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E108">
-        <v>0.22800000000000001</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>9.6999999999999993</v>
+        <v>0.23</v>
       </c>
       <c r="G108">
-        <v>4.29</v>
+        <v>40</v>
       </c>
       <c r="H108">
-        <v>11</v>
+        <v>6.23</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>24</v>
-      </c>
-      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C109">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E109">
-        <v>3.5999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>7</v>
+        <v>0.26</v>
       </c>
       <c r="G109">
-        <v>4.12</v>
+        <v>7.6</v>
       </c>
       <c r="H109">
-        <v>13.5</v>
+        <v>4.42</v>
       </c>
       <c r="I109">
-        <v>1.23</v>
-      </c>
-      <c r="J109" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>0.75</v>
-      </c>
-      <c r="B110">
+        <v>27</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C110">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E110">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>40</v>
+        <v>0.22</v>
       </c>
       <c r="G110">
-        <v>6.23</v>
+        <v>12.1</v>
       </c>
       <c r="H110">
-        <v>14</v>
+        <v>3.92</v>
       </c>
       <c r="I110">
-        <v>1.4</v>
+        <v>11</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -4418,738 +4542,695 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>3</v>
-      </c>
-      <c r="B111">
+        <v>13</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C111">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E111">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>7.6</v>
+        <v>0.24</v>
       </c>
       <c r="G111">
-        <v>4.42</v>
+        <v>13.6</v>
       </c>
       <c r="H111">
-        <v>14</v>
+        <v>4.38</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>27</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C112">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E112">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>12.1</v>
+        <v>0.27</v>
       </c>
       <c r="G112">
-        <v>3.92</v>
+        <v>9</v>
       </c>
       <c r="H112">
-        <v>11</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="I112">
-        <v>1</v>
-      </c>
-      <c r="J112" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>13</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E113">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>13.6</v>
+        <v>0.4</v>
       </c>
       <c r="G113">
-        <v>4.38</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H113">
-        <v>22</v>
+        <v>5.36</v>
       </c>
       <c r="I113">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J113" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>36</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E114">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F114">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G114">
+        <v>9.4</v>
+      </c>
+      <c r="H114">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I114">
         <v>9</v>
       </c>
-      <c r="G114">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="H114">
-        <v>12</v>
-      </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-      <c r="J114" t="s">
-        <v>10</v>
+      <c r="J114">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>25</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="E115">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>9.1999999999999993</v>
+        <v>0.19</v>
       </c>
       <c r="G115">
-        <v>5.36</v>
+        <v>28.9</v>
       </c>
       <c r="H115">
-        <v>12</v>
+        <v>6.63</v>
       </c>
       <c r="I115">
-        <v>1</v>
-      </c>
-      <c r="J115" t="s">
-        <v>10</v>
+        <v>19.5</v>
+      </c>
+      <c r="J115">
+        <v>1.95</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>27</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>57</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>9.4</v>
+        <v>0.26</v>
       </c>
       <c r="G116">
-        <v>4.7699999999999996</v>
+        <v>0</v>
       </c>
       <c r="H116">
+        <v>4.38</v>
+      </c>
+      <c r="I116">
         <v>9</v>
       </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="J116" t="s">
-        <v>10</v>
+      <c r="J116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>34</v>
       </c>
-      <c r="B117">
-        <v>0</v>
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E117">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>28.9</v>
+        <v>0.43</v>
       </c>
       <c r="G117">
-        <v>6.63</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H117">
-        <v>19.5</v>
+        <v>4.79</v>
       </c>
       <c r="I117">
-        <v>1.95</v>
-      </c>
-      <c r="J117" t="s">
         <v>10</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>37</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E118">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="G118">
-        <v>4.38</v>
+        <v>28.6</v>
       </c>
       <c r="H118">
-        <v>9</v>
+        <v>5.86</v>
       </c>
       <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118" t="s">
-        <v>10</v>
+        <v>21.5</v>
+      </c>
+      <c r="J118">
+        <v>1.95</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>34</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>54</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
       </c>
       <c r="E119">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>9.3000000000000007</v>
+        <v>0.23</v>
       </c>
       <c r="G119">
-        <v>4.79</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="H119">
-        <v>10</v>
+        <v>5.49</v>
       </c>
       <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J119">
+        <v>1.2</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>28</v>
-      </c>
-      <c r="B120">
+        <v>17</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C120">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E120">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>28.6</v>
+        <v>0.15</v>
       </c>
       <c r="G120">
-        <v>5.86</v>
+        <v>6.6</v>
       </c>
       <c r="H120">
-        <v>21.5</v>
+        <v>4.17</v>
       </c>
       <c r="I120">
-        <v>1.95</v>
-      </c>
-      <c r="J120" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="J120">
+        <v>1.27</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>28</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E121">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>19.100000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G121">
-        <v>5.49</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>12</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="I121">
-        <v>1.2</v>
-      </c>
-      <c r="J121" t="s">
-        <v>10</v>
+        <v>16.5</v>
+      </c>
+      <c r="J121">
+        <v>1.375</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>17</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E122">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>6.6</v>
+        <v>0.18</v>
       </c>
       <c r="G122">
-        <v>4.17</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>14</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="I122">
-        <v>1.27</v>
-      </c>
-      <c r="J122" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J122">
+        <v>1.375</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>38</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E123">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G123">
-        <v>2.3199999999999998</v>
+        <v>13.2</v>
       </c>
       <c r="H123">
-        <v>16.5</v>
+        <v>5.04</v>
       </c>
       <c r="I123">
-        <v>1.375</v>
-      </c>
-      <c r="J123" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="J123">
+        <v>1.73</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>31</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E124">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G124">
-        <v>4.4800000000000004</v>
+        <v>12</v>
       </c>
       <c r="H124">
-        <v>11</v>
+        <v>3.66</v>
       </c>
       <c r="I124">
-        <v>1.375</v>
-      </c>
-      <c r="J124" t="s">
         <v>10</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>12</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>61</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
       </c>
       <c r="E125">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>13.2</v>
+        <v>0.09</v>
       </c>
       <c r="G125">
-        <v>5.04</v>
+        <v>6.8</v>
       </c>
       <c r="H125">
-        <v>19</v>
+        <v>4.96</v>
       </c>
       <c r="I125">
-        <v>1.73</v>
-      </c>
-      <c r="J125" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="J125">
+        <v>1.08</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>36</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E126">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G126">
-        <v>3.66</v>
+        <v>25.5</v>
       </c>
       <c r="H126">
-        <v>10</v>
+        <v>5.16</v>
       </c>
       <c r="I126">
-        <v>1</v>
-      </c>
-      <c r="J126" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="J126">
+        <v>1.27</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>17</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127" t="s">
-        <v>10</v>
+        <v>7.5</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E127">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>6.8</v>
+        <v>0.24</v>
       </c>
       <c r="G127">
-        <v>4.96</v>
+        <v>12.9</v>
       </c>
       <c r="H127">
-        <v>13</v>
+        <v>4.72</v>
       </c>
       <c r="I127">
-        <v>1.08</v>
-      </c>
-      <c r="J127" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>21</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C128">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E128">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>25.5</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G128">
-        <v>5.16</v>
+        <v>5.4</v>
       </c>
       <c r="H128">
-        <v>14</v>
+        <v>5.47</v>
       </c>
       <c r="I128">
-        <v>1.27</v>
-      </c>
-      <c r="J128" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J128">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>7.5</v>
-      </c>
-      <c r="B129">
+        <v>36</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C129">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E129">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>12.9</v>
+        <v>0.2</v>
       </c>
       <c r="G129">
-        <v>4.72</v>
+        <v>7</v>
       </c>
       <c r="H129">
-        <v>12</v>
+        <v>5.05</v>
       </c>
       <c r="I129">
-        <v>1</v>
-      </c>
-      <c r="J129" t="s">
-        <v>10</v>
+        <v>14.5</v>
+      </c>
+      <c r="J129">
+        <v>1.21</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>41</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C130">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E130">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>5.4</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G130">
-        <v>5.47</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H130">
-        <v>11</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="I130">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J130" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="J130">
+        <v>1.36</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>36</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" ref="B131" si="2">IF(C131=0,"1","0")</f>
+        <v>1</v>
       </c>
       <c r="C131">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E131">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>7</v>
+        <v>0.15</v>
       </c>
       <c r="G131">
-        <v>5.05</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>14.5</v>
+        <v>4.51</v>
       </c>
       <c r="I131">
-        <v>1.21</v>
-      </c>
-      <c r="J131" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A132">
-        <v>22</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132">
-        <v>57</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F132">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="G132">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="H132">
-        <v>15</v>
-      </c>
-      <c r="I132">
-        <v>1.36</v>
-      </c>
-      <c r="J132" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A133">
-        <v>20</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>62</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <v>0.15</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>4.51</v>
-      </c>
-      <c r="H133">
         <v>15.5</v>
       </c>
-      <c r="I133">
+      <c r="J131">
         <v>1.409</v>
-      </c>
-      <c r="J133" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/df.xlsx
+++ b/df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC1BE6A-6D05-443A-A0CC-5FB3DA43BCF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6D5A00-43F3-4092-BFC4-00FEC08B8BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5500" yWindow="390" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="12">
   <si>
     <t>Survival</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Age.Strata</t>
   </si>
 </sst>
 </file>
@@ -546,8 +549,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -903,16 +908,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="5.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -925,30 +934,32 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>11</v>
       </c>
-      <c r="B2" t="str">
-        <f>IF(C2=0,"1","0")</f>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2">
@@ -957,31 +968,33 @@
       <c r="D2">
         <v>71</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" s="2">
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>0.26</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>14</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>19</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="0">IF(C3=0,"1","0")</f>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3">
@@ -990,31 +1003,33 @@
       <c r="D3">
         <v>72</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" s="2">
+        <v>2</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>0.38</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>14</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>16</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
+      <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4">
@@ -1023,31 +1038,33 @@
       <c r="D4">
         <v>55</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" s="2">
+        <v>1</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0.26</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3.42</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>14</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>57</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5">
@@ -1056,31 +1073,33 @@
       <c r="D5">
         <v>60</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" s="2">
+        <v>1</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0.253</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>12.061999999999999</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4.6029999999999998</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>16</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>19</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
+      <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6">
@@ -1089,31 +1108,33 @@
       <c r="D6">
         <v>57</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" s="2">
+        <v>1</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.16</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>22</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5.75</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>18</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2.25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>26</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
+      <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7">
@@ -1122,31 +1143,33 @@
       <c r="D7">
         <v>68</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" s="2">
+        <v>2</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0.26</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>12</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>13</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
+      <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8">
@@ -1155,31 +1178,33 @@
       <c r="D8">
         <v>62</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" s="2">
+        <v>1</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>0.23</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>31</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5.43</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>22.5</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1.875</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>50</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
+      <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9">
@@ -1188,31 +1213,33 @@
       <c r="D9">
         <v>60</v>
       </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="E9" s="2">
+        <v>1</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>0.33</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5.25</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>14</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>19</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
+      <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10">
@@ -1221,31 +1248,33 @@
       <c r="D10">
         <v>46</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0.34</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>5.09</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>16</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>25</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11">
@@ -1254,31 +1283,33 @@
       <c r="D11">
         <v>54</v>
       </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="E11" s="2">
+        <v>1</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>13</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4.49</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>15.5</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1.19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
+      <c r="B12" s="2">
         <v>0</v>
       </c>
       <c r="C12">
@@ -1287,31 +1318,33 @@
       <c r="D12">
         <v>77</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" s="2">
+        <v>2</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>0.13</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>16</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4.2300000000000004</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>18</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>52</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
+      <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13">
@@ -1320,31 +1353,33 @@
       <c r="D13">
         <v>62</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>0.45</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>9</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3.6</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>16</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>52</v>
       </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
+      <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14">
@@ -1353,31 +1388,33 @@
       <c r="D14">
         <v>73</v>
       </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="E14" s="2">
+        <v>2</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>0.33</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>14</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>44</v>
       </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
+      <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15">
@@ -1386,31 +1423,33 @@
       <c r="D15">
         <v>60</v>
       </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="E15" s="2">
+        <v>1</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>0.15</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>3.73</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>14</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>0.5</v>
       </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
+      <c r="B16" s="2">
         <v>0</v>
       </c>
       <c r="C16">
@@ -1419,31 +1458,33 @@
       <c r="D16">
         <v>62</v>
       </c>
-      <c r="E16">
-        <v>0</v>
+      <c r="E16" s="2">
+        <v>1</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>0.12</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>23</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>5.8</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>11.67</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.33</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>24</v>
       </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
+      <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17">
@@ -1452,31 +1493,33 @@
       <c r="D17">
         <v>55</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>0.25</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>12.063000000000001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>4.29</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>14</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>0.5</v>
       </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
+      <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18">
@@ -1485,31 +1528,33 @@
       <c r="D18">
         <v>69</v>
       </c>
-      <c r="E18">
-        <v>1</v>
+      <c r="E18" s="2">
+        <v>2</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>0.26</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>11</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>4.6500000000000004</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>18</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1.64</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>0.5</v>
       </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
+      <c r="B19" s="2">
         <v>0</v>
       </c>
       <c r="C19">
@@ -1518,31 +1563,33 @@
       <c r="D19">
         <v>62.53</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>20</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5.2</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>24</v>
       </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>22</v>
       </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
+      <c r="B20" s="2">
         <v>0</v>
       </c>
       <c r="C20">
@@ -1551,31 +1598,33 @@
       <c r="D20">
         <v>66</v>
       </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="E20" s="2">
+        <v>2</v>
       </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>0.09</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>17</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>5.819</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>8</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.333</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21">
@@ -1584,31 +1633,33 @@
       <c r="D21">
         <v>66</v>
       </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="E21" s="2">
+        <v>2</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>0.22</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>15</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5.4</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>27</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2.25</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>0.75</v>
       </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
+      <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22">
@@ -1617,31 +1668,33 @@
       <c r="D22">
         <v>69</v>
       </c>
-      <c r="E22">
-        <v>0</v>
+      <c r="E22" s="2">
+        <v>2</v>
       </c>
       <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>0.15</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>12</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>5.39</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>19.5</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1.625</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>0.75</v>
       </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
+      <c r="B23" s="2">
         <v>0</v>
       </c>
       <c r="C23">
@@ -1650,31 +1703,33 @@
       <c r="D23">
         <v>85</v>
       </c>
-      <c r="E23">
-        <v>1</v>
+      <c r="E23" s="2">
+        <v>2</v>
       </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>0.18</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>19</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>5.46</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>13.83</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>1.38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>0.5</v>
       </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
+      <c r="B24" s="2">
         <v>0</v>
       </c>
       <c r="C24">
@@ -1683,31 +1738,33 @@
       <c r="D24">
         <v>73</v>
       </c>
-      <c r="E24">
-        <v>0</v>
+      <c r="E24" s="2">
+        <v>2</v>
       </c>
       <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>0.23</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>12.733000000000001</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>6.06</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>7.5</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>5</v>
       </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
+      <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25">
@@ -1716,31 +1773,33 @@
       <c r="D25">
         <v>71</v>
       </c>
-      <c r="E25">
-        <v>0</v>
+      <c r="E25" s="2">
+        <v>2</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>0.17</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>4.6500000000000004</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>8</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>48</v>
       </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
+      <c r="B26" s="2">
         <v>1</v>
       </c>
       <c r="C26">
@@ -1749,31 +1808,33 @@
       <c r="D26">
         <v>64</v>
       </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="E26" s="2">
+        <v>1</v>
       </c>
       <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>0.19</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5.9</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>3.48</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>10</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>29</v>
       </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
+      <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27">
@@ -1782,31 +1843,33 @@
       <c r="D27">
         <v>54</v>
       </c>
-      <c r="E27">
-        <v>0</v>
+      <c r="E27" s="2">
+        <v>1</v>
       </c>
       <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>0.3</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>7</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>3.85</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>10</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1.667</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>29</v>
       </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
+      <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28">
@@ -1815,31 +1878,33 @@
       <c r="D28">
         <v>35</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>0</v>
       </c>
       <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>0.3</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>5</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>4.17</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>14</v>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
+      <c r="B29" s="2">
         <v>1</v>
       </c>
       <c r="C29">
@@ -1848,31 +1913,33 @@
       <c r="D29">
         <v>55</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
         <v>8</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>7</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>8</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>0.25</v>
       </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
+      <c r="B30" s="2">
         <v>0</v>
       </c>
       <c r="C30">
@@ -1881,11 +1948,11 @@
       <c r="D30">
         <v>75</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>8</v>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -1896,16 +1963,18 @@
       <c r="I30" t="s">
         <v>8</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="J30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>36</v>
       </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
+      <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31">
@@ -1914,31 +1983,33 @@
       <c r="D31">
         <v>55</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>0.21</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>4.2</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>4.16</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>14</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.56</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32">
@@ -1947,31 +2018,33 @@
       <c r="D32">
         <v>65</v>
       </c>
-      <c r="E32">
-        <v>0</v>
+      <c r="E32" s="2">
+        <v>2</v>
       </c>
       <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>0.15</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>8</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>5.05</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>10</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
         <v>0</v>
       </c>
       <c r="C33">
@@ -1980,31 +2053,33 @@
       <c r="D33">
         <v>52</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>0.17</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>17.2</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>5.32</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>14</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>1.17</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>3</v>
       </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
+      <c r="B34" s="2">
         <v>0</v>
       </c>
       <c r="C34">
@@ -2013,31 +2088,33 @@
       <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
         <v>8</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>12</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>8</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>6</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>27</v>
       </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
+      <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35">
@@ -2046,31 +2123,33 @@
       <c r="D35">
         <v>47</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>0</v>
       </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>0.4</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>5.12</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>3.1</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>12</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
+      <c r="B36" s="2">
         <v>1</v>
       </c>
       <c r="C36">
@@ -2079,31 +2158,33 @@
       <c r="D36">
         <v>63</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
         <v>8</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>10</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>8</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>14</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>1.17</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>26</v>
       </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
+      <c r="B37" s="2">
         <v>1</v>
       </c>
       <c r="C37">
@@ -2112,31 +2193,33 @@
       <c r="D37">
         <v>61</v>
       </c>
-      <c r="E37">
-        <v>0</v>
+      <c r="E37" s="2">
+        <v>1</v>
       </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>0.61</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>13.1</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>4.07</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>13</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>1.625</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>16</v>
       </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
+      <c r="B38" s="2">
         <v>1</v>
       </c>
       <c r="C38">
@@ -2145,31 +2228,33 @@
       <c r="D38">
         <v>63</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38">
         <v>5.31</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>5</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2">
         <v>0</v>
       </c>
       <c r="C39">
@@ -2178,31 +2263,33 @@
       <c r="D39">
         <v>65</v>
       </c>
-      <c r="E39">
-        <v>0</v>
+      <c r="E39" s="2">
+        <v>2</v>
       </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>0.06</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>23.6</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>8</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>21.5</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>2.15</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>19</v>
       </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
+      <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40">
@@ -2211,31 +2298,33 @@
       <c r="D40">
         <v>68</v>
       </c>
-      <c r="E40">
-        <v>0</v>
+      <c r="E40" s="2">
+        <v>2</v>
       </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>0.51</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>8</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>3.88</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>15</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>1.67</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>31</v>
       </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
+      <c r="B41" s="2">
         <v>1</v>
       </c>
       <c r="C41">
@@ -2244,31 +2333,33 @@
       <c r="D41">
         <v>80</v>
       </c>
-      <c r="E41">
-        <v>0</v>
+      <c r="E41" s="2">
+        <v>2</v>
       </c>
       <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>0.41</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>5.4</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>4.3600000000000003</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>8</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42">
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>32</v>
       </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
+      <c r="B42" s="2">
         <v>1</v>
       </c>
       <c r="C42">
@@ -2277,31 +2368,33 @@
       <c r="D42">
         <v>54</v>
       </c>
-      <c r="E42">
-        <v>0</v>
+      <c r="E42" s="2">
+        <v>1</v>
       </c>
       <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>0.35</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>3.63</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>11</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>1.222</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>16</v>
       </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
+      <c r="B43" s="2">
         <v>1</v>
       </c>
       <c r="C43">
@@ -2310,31 +2403,33 @@
       <c r="D43">
         <v>70</v>
       </c>
-      <c r="E43">
-        <v>1</v>
+      <c r="E43" s="2">
+        <v>2</v>
       </c>
       <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>0.27</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>4.7</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>4.49</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>22</v>
       </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44">
+      <c r="K43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
+      <c r="B44" s="2">
         <v>1</v>
       </c>
       <c r="C44">
@@ -2343,31 +2438,33 @@
       <c r="D44">
         <v>79</v>
       </c>
-      <c r="E44">
-        <v>0</v>
+      <c r="E44" s="2">
+        <v>2</v>
       </c>
       <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
         <v>0.15</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>17.5</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>4.2699999999999996</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>13</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>1.3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>46</v>
       </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
+      <c r="B45" s="2">
         <v>1</v>
       </c>
       <c r="C45">
@@ -2376,31 +2473,33 @@
       <c r="D45">
         <v>56</v>
       </c>
-      <c r="E45">
-        <v>0</v>
+      <c r="E45" s="2">
+        <v>1</v>
       </c>
       <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>0.33</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>8</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>3.59</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>14</v>
       </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2">
         <v>0</v>
       </c>
       <c r="C46">
@@ -2409,31 +2508,33 @@
       <c r="D46">
         <v>67</v>
       </c>
-      <c r="E46">
-        <v>1</v>
+      <c r="E46" s="2">
+        <v>2</v>
       </c>
       <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>0.44</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>9</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>3.96</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>17.5</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>1.45</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>37</v>
       </c>
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
+      <c r="B47" s="2">
         <v>1</v>
       </c>
       <c r="C47">
@@ -2442,31 +2543,33 @@
       <c r="D47">
         <v>64</v>
       </c>
-      <c r="E47">
-        <v>0</v>
+      <c r="E47" s="2">
+        <v>1</v>
       </c>
       <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
         <v>0.09</v>
-      </c>
-      <c r="G47" t="s">
-        <v>8</v>
       </c>
       <c r="H47" t="s">
         <v>8</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47">
         <v>12</v>
       </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48">
+      <c r="K47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>19.5</v>
       </c>
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
+      <c r="B48" s="2">
         <v>0</v>
       </c>
       <c r="C48">
@@ -2475,31 +2578,33 @@
       <c r="D48">
         <v>81</v>
       </c>
-      <c r="E48">
-        <v>0</v>
+      <c r="E48" s="2">
+        <v>2</v>
       </c>
       <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
         <v>0.12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>8</v>
       </c>
       <c r="H48" t="s">
         <v>8</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48">
         <v>9</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>1.25</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <v>20</v>
       </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
+      <c r="B49" s="2">
         <v>0</v>
       </c>
       <c r="C49">
@@ -2508,31 +2613,33 @@
       <c r="D49">
         <v>59</v>
       </c>
-      <c r="E49">
-        <v>0</v>
+      <c r="E49" s="2">
+        <v>1</v>
       </c>
       <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>0.03</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>21.3</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>6.29</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>17</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>1.31</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>0.25</v>
       </c>
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
+      <c r="B50" s="2">
         <v>0</v>
       </c>
       <c r="C50">
@@ -2541,11 +2648,11 @@
       <c r="D50">
         <v>63</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>8</v>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
       </c>
       <c r="G50" t="s">
         <v>8</v>
@@ -2553,19 +2660,21 @@
       <c r="H50" t="s">
         <v>8</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50">
         <v>23</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2">
         <v>0</v>
       </c>
       <c r="C51">
@@ -2574,31 +2683,33 @@
       <c r="D51">
         <v>56</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>1</v>
       </c>
       <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>0.04</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>14</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>5</v>
-      </c>
-      <c r="I51" t="s">
-        <v>8</v>
       </c>
       <c r="J51" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52">
+      <c r="K51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>7</v>
       </c>
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
+      <c r="B52" s="2">
         <v>0</v>
       </c>
       <c r="C52">
@@ -2607,31 +2718,33 @@
       <c r="D52">
         <v>61</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>1</v>
       </c>
       <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
         <v>0.27</v>
-      </c>
-      <c r="G52" t="s">
-        <v>8</v>
       </c>
       <c r="H52" t="s">
         <v>8</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52">
         <v>9</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" t="str">
-        <f t="shared" si="0"/>
+      <c r="B53" s="2">
         <v>1</v>
       </c>
       <c r="C53">
@@ -2640,31 +2753,33 @@
       <c r="D53">
         <v>57</v>
       </c>
-      <c r="E53">
-        <v>0</v>
+      <c r="E53" s="2">
+        <v>1</v>
       </c>
       <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
         <v>0.24</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>14.8</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>5.26</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>18</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>1.38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
         <v>12</v>
       </c>
-      <c r="B54" t="str">
-        <f t="shared" si="0"/>
+      <c r="B54" s="2">
         <v>1</v>
       </c>
       <c r="C54">
@@ -2673,31 +2788,33 @@
       <c r="D54">
         <v>58</v>
       </c>
-      <c r="E54">
-        <v>0</v>
+      <c r="E54" s="2">
+        <v>1</v>
       </c>
       <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>0.3</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>9.4</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>3.49</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>14</v>
       </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="str">
-        <f t="shared" si="0"/>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2">
         <v>0</v>
       </c>
       <c r="C55">
@@ -2706,31 +2823,33 @@
       <c r="D55">
         <v>60</v>
       </c>
-      <c r="E55">
-        <v>0</v>
+      <c r="E55" s="2">
+        <v>1</v>
       </c>
       <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
         <v>0.01</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>24.6</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>5.65</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>39</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
         <v>10</v>
       </c>
-      <c r="B56" t="str">
-        <f t="shared" si="0"/>
+      <c r="B56" s="2">
         <v>1</v>
       </c>
       <c r="C56">
@@ -2739,31 +2858,33 @@
       <c r="D56">
         <v>66</v>
       </c>
-      <c r="E56">
-        <v>0</v>
+      <c r="E56" s="2">
+        <v>2</v>
       </c>
       <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>15.6</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>6.15</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>14</v>
       </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57">
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <v>45</v>
       </c>
-      <c r="B57" t="str">
-        <f t="shared" si="0"/>
+      <c r="B57" s="2">
         <v>1</v>
       </c>
       <c r="C57">
@@ -2772,31 +2893,33 @@
       <c r="D57">
         <v>63</v>
       </c>
-      <c r="E57">
-        <v>0</v>
+      <c r="E57" s="2">
+        <v>1</v>
       </c>
       <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>0.15</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>13</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>4.57</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>13</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>1.08</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
         <v>22</v>
       </c>
-      <c r="B58" t="str">
-        <f t="shared" si="0"/>
+      <c r="B58" s="2">
         <v>1</v>
       </c>
       <c r="C58">
@@ -2805,31 +2928,33 @@
       <c r="D58">
         <v>57</v>
       </c>
-      <c r="E58">
-        <v>0</v>
+      <c r="E58" s="2">
+        <v>1</v>
       </c>
       <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>0.13</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>18.600000000000001</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>4.37</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>12.33</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>1.37</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
         <v>53</v>
       </c>
-      <c r="B59" t="str">
-        <f t="shared" si="0"/>
+      <c r="B59" s="2">
         <v>1</v>
       </c>
       <c r="C59">
@@ -2838,31 +2963,33 @@
       <c r="D59">
         <v>70</v>
       </c>
-      <c r="E59">
-        <v>0</v>
+      <c r="E59" s="2">
+        <v>2</v>
       </c>
       <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
         <v>0.1</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>5.3</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>23</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
         <v>38</v>
       </c>
-      <c r="B60" t="str">
-        <f t="shared" si="0"/>
+      <c r="B60" s="2">
         <v>1</v>
       </c>
       <c r="C60">
@@ -2871,31 +2998,33 @@
       <c r="D60">
         <v>68</v>
       </c>
-      <c r="E60">
-        <v>0</v>
+      <c r="E60" s="2">
+        <v>2</v>
       </c>
       <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>8</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>4.41</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>14</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>1.167</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
         <v>26</v>
       </c>
-      <c r="B61" t="str">
-        <f t="shared" si="0"/>
+      <c r="B61" s="2">
         <v>1</v>
       </c>
       <c r="C61">
@@ -2904,31 +3033,33 @@
       <c r="D61">
         <v>79</v>
       </c>
-      <c r="E61">
-        <v>0</v>
+      <c r="E61" s="2">
+        <v>2</v>
       </c>
       <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
         <v>0.17</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>11.9</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>5.15</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>10.5</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>1.05</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
         <v>9</v>
       </c>
-      <c r="B62" t="str">
-        <f t="shared" si="0"/>
+      <c r="B62" s="2">
         <v>1</v>
       </c>
       <c r="C62">
@@ -2937,31 +3068,33 @@
       <c r="D62">
         <v>73</v>
       </c>
-      <c r="E62">
-        <v>0</v>
+      <c r="E62" s="2">
+        <v>2</v>
       </c>
       <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
         <v>0.12</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>8</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>6.78</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>16.670000000000002</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>1.39</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
         <v>26</v>
       </c>
-      <c r="B63" t="str">
-        <f t="shared" si="0"/>
+      <c r="B63" s="2">
         <v>1</v>
       </c>
       <c r="C63">
@@ -2970,31 +3103,33 @@
       <c r="D63">
         <v>72</v>
       </c>
-      <c r="E63">
-        <v>0</v>
+      <c r="E63" s="2">
+        <v>2</v>
       </c>
       <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
         <v>0.187</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>12</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>5.0199999999999996</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>13</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>1.18</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
         <v>0.5</v>
       </c>
-      <c r="B64" t="str">
-        <f t="shared" si="0"/>
+      <c r="B64" s="2">
         <v>0</v>
       </c>
       <c r="C64">
@@ -3003,31 +3138,33 @@
       <c r="D64">
         <v>59</v>
       </c>
-      <c r="E64">
-        <v>0</v>
+      <c r="E64" s="2">
+        <v>1</v>
       </c>
       <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
         <v>0.13</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>16.399999999999999</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>4.96</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>17.829999999999998</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>1.37</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
         <v>12</v>
       </c>
-      <c r="B65" t="str">
-        <f t="shared" si="0"/>
+      <c r="B65" s="2">
         <v>1</v>
       </c>
       <c r="C65">
@@ -3036,31 +3173,33 @@
       <c r="D65">
         <v>67</v>
       </c>
-      <c r="E65">
-        <v>1</v>
+      <c r="E65" s="2">
+        <v>2</v>
       </c>
       <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
         <v>0.11</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>10.3</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>4.68</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>11</v>
       </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66">
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
         <v>49</v>
       </c>
-      <c r="B66" t="str">
-        <f t="shared" si="0"/>
+      <c r="B66" s="2">
         <v>1</v>
       </c>
       <c r="C66">
@@ -3069,31 +3208,33 @@
       <c r="D66">
         <v>51</v>
       </c>
-      <c r="E66">
-        <v>0</v>
+      <c r="E66" s="2">
+        <v>1</v>
       </c>
       <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>0.16</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>13.2</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>5.26</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>11</v>
       </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67">
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
         <v>0.75</v>
       </c>
-      <c r="B67" t="str">
-        <f t="shared" ref="B67:B130" si="1">IF(C67=0,"1","0")</f>
+      <c r="B67" s="2">
         <v>0</v>
       </c>
       <c r="C67">
@@ -3102,31 +3243,33 @@
       <c r="D67">
         <v>50</v>
       </c>
-      <c r="E67">
-        <v>0</v>
+      <c r="E67" s="2">
+        <v>1</v>
       </c>
       <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>11.4</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>4.75</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>10</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>2.5</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
         <v>49</v>
       </c>
-      <c r="B68" t="str">
-        <f t="shared" si="1"/>
+      <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68">
@@ -3135,31 +3278,33 @@
       <c r="D68">
         <v>70</v>
       </c>
-      <c r="E68">
-        <v>1</v>
+      <c r="E68" s="2">
+        <v>2</v>
       </c>
       <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
         <v>0.25</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>5.57</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>5.5</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
         <v>47</v>
       </c>
-      <c r="B69" t="str">
-        <f t="shared" si="1"/>
+      <c r="B69" s="2">
         <v>1</v>
       </c>
       <c r="C69">
@@ -3168,31 +3313,33 @@
       <c r="D69">
         <v>65</v>
       </c>
-      <c r="E69">
-        <v>0</v>
+      <c r="E69" s="2">
+        <v>2</v>
       </c>
       <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
         <v>0.36</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>5.78</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>12</v>
       </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70">
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
         <v>41</v>
       </c>
-      <c r="B70" t="str">
-        <f t="shared" si="1"/>
+      <c r="B70" s="2">
         <v>1</v>
       </c>
       <c r="C70">
@@ -3201,31 +3348,33 @@
       <c r="D70">
         <v>78</v>
       </c>
-      <c r="E70">
-        <v>0</v>
+      <c r="E70" s="2">
+        <v>2</v>
       </c>
       <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
         <v>0.06</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>16.100000000000001</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>5.62</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>13.67</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>1.367</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
         <v>0.25</v>
       </c>
-      <c r="B71" t="str">
-        <f t="shared" si="1"/>
+      <c r="B71" s="2">
         <v>0</v>
       </c>
       <c r="C71">
@@ -3234,31 +3383,33 @@
       <c r="D71">
         <v>86</v>
       </c>
-      <c r="E71">
-        <v>0</v>
+      <c r="E71" s="2">
+        <v>2</v>
       </c>
       <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>12.2</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>5.2</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>24</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
         <v>33</v>
       </c>
-      <c r="B72" t="str">
-        <f t="shared" si="1"/>
+      <c r="B72" s="2">
         <v>1</v>
       </c>
       <c r="C72">
@@ -3267,31 +3418,33 @@
       <c r="D72">
         <v>56</v>
       </c>
-      <c r="E72">
-        <v>0</v>
+      <c r="E72" s="2">
+        <v>1</v>
       </c>
       <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
         <v>0.25</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>11</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>4.72</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>11</v>
       </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73">
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
         <v>29</v>
       </c>
-      <c r="B73" t="str">
-        <f t="shared" si="1"/>
+      <c r="B73" s="2">
         <v>1</v>
       </c>
       <c r="C73">
@@ -3300,31 +3453,33 @@
       <c r="D73">
         <v>60</v>
       </c>
-      <c r="E73">
-        <v>0</v>
+      <c r="E73" s="2">
+        <v>1</v>
       </c>
       <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
         <v>0.12</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>10.199999999999999</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>15</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>1.67</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
         <v>41</v>
       </c>
-      <c r="B74" t="str">
-        <f t="shared" si="1"/>
+      <c r="B74" s="2">
         <v>1</v>
       </c>
       <c r="C74">
@@ -3333,31 +3488,33 @@
       <c r="D74">
         <v>59</v>
       </c>
-      <c r="E74">
-        <v>0</v>
+      <c r="E74" s="2">
+        <v>1</v>
       </c>
       <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>7.5</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>4.75</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>13</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>1.08</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
         <v>26</v>
       </c>
-      <c r="B75" t="str">
-        <f t="shared" si="1"/>
+      <c r="B75" s="2">
         <v>1</v>
       </c>
       <c r="C75">
@@ -3366,31 +3523,33 @@
       <c r="D75">
         <v>50</v>
       </c>
-      <c r="E75">
-        <v>0</v>
+      <c r="E75" s="2">
+        <v>1</v>
       </c>
       <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
         <v>0.06</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>30.1</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>5.95</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>21.5</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>2.39</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
         <v>15</v>
       </c>
-      <c r="B76" t="str">
-        <f t="shared" si="1"/>
+      <c r="B76" s="2">
         <v>1</v>
       </c>
       <c r="C76">
@@ -3399,31 +3558,33 @@
       <c r="D76">
         <v>54</v>
       </c>
-      <c r="E76">
-        <v>0</v>
+      <c r="E76" s="2">
+        <v>1</v>
       </c>
       <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
         <v>0.217</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>17.899999999999999</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>4.54</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>16.5</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>1.18</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
         <v>0.25</v>
       </c>
-      <c r="B77" t="str">
-        <f t="shared" si="1"/>
+      <c r="B77" s="2">
         <v>0</v>
       </c>
       <c r="C77">
@@ -3432,31 +3593,33 @@
       <c r="D77">
         <v>68</v>
       </c>
-      <c r="E77">
-        <v>0</v>
+      <c r="E77" s="2">
+        <v>2</v>
       </c>
       <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
         <v>0.22</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>21.7</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>4.8499999999999996</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>15</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
         <v>0.03</v>
       </c>
-      <c r="B78" t="str">
-        <f t="shared" si="1"/>
+      <c r="B78" s="2">
         <v>0</v>
       </c>
       <c r="C78">
@@ -3465,31 +3628,33 @@
       <c r="D78" t="s">
         <v>8</v>
       </c>
-      <c r="E78">
-        <v>0</v>
+      <c r="E78" s="2">
+        <v>2</v>
       </c>
       <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
         <v>0.26</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>19.399999999999999</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>4.7699999999999996</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>21</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>2.1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
         <v>12</v>
       </c>
-      <c r="B79" t="str">
-        <f t="shared" si="1"/>
+      <c r="B79" s="2">
         <v>1</v>
       </c>
       <c r="C79">
@@ -3498,31 +3663,33 @@
       <c r="D79">
         <v>64</v>
       </c>
-      <c r="E79">
-        <v>0</v>
+      <c r="E79" s="2">
+        <v>1</v>
       </c>
       <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
         <v>0.2</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>7.1</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>4.58</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>14</v>
       </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80">
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
         <v>32</v>
       </c>
-      <c r="B80" t="str">
-        <f t="shared" si="1"/>
+      <c r="B80" s="2">
         <v>1</v>
       </c>
       <c r="C80">
@@ -3531,31 +3698,33 @@
       <c r="D80">
         <v>63</v>
       </c>
-      <c r="E80">
-        <v>0</v>
+      <c r="E80" s="2">
+        <v>1</v>
       </c>
       <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
         <v>0.2</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>5</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>5.2</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>8</v>
       </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81">
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
         <v>32</v>
       </c>
-      <c r="B81" t="str">
-        <f t="shared" si="1"/>
+      <c r="B81" s="2">
         <v>1</v>
       </c>
       <c r="C81">
@@ -3564,31 +3733,33 @@
       <c r="D81">
         <v>65</v>
       </c>
-      <c r="E81">
-        <v>0</v>
+      <c r="E81" s="2">
+        <v>2</v>
       </c>
       <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
         <v>0.06</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>23.6</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>6.74</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>12</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
         <v>27</v>
       </c>
-      <c r="B82" t="str">
-        <f t="shared" si="1"/>
+      <c r="B82" s="2">
         <v>1</v>
       </c>
       <c r="C82">
@@ -3597,31 +3768,33 @@
       <c r="D82">
         <v>54</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <v>1</v>
       </c>
       <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>16.8</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>4.16</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>18</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>1.5</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
         <v>23</v>
       </c>
-      <c r="B83" t="str">
-        <f t="shared" si="1"/>
+      <c r="B83" s="2">
         <v>1</v>
       </c>
       <c r="C83">
@@ -3630,31 +3803,33 @@
       <c r="D83">
         <v>62</v>
       </c>
-      <c r="E83">
-        <v>0</v>
+      <c r="E83" s="2">
+        <v>1</v>
       </c>
       <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
         <v>0.25</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>6</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>4.4800000000000004</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>11</v>
       </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84">
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
         <v>0.75</v>
       </c>
-      <c r="B84" t="str">
-        <f t="shared" si="1"/>
+      <c r="B84" s="2">
         <v>0</v>
       </c>
       <c r="C84">
@@ -3663,31 +3838,33 @@
       <c r="D84">
         <v>78</v>
       </c>
-      <c r="E84">
-        <v>0</v>
+      <c r="E84" s="2">
+        <v>2</v>
       </c>
       <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
         <v>0.05</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>10</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>4.4400000000000004</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>15</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>1.36</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
         <v>0.75</v>
       </c>
-      <c r="B85" t="str">
-        <f t="shared" si="1"/>
+      <c r="B85" s="2">
         <v>0</v>
       </c>
       <c r="C85">
@@ -3696,11 +3873,11 @@
       <c r="D85">
         <v>61</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>8</v>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
       </c>
       <c r="G85" t="s">
         <v>8</v>
@@ -3708,19 +3885,21 @@
       <c r="H85" t="s">
         <v>8</v>
       </c>
-      <c r="I85">
+      <c r="I85" t="s">
+        <v>8</v>
+      </c>
+      <c r="J85">
         <v>28</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>2.33</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
         <v>34</v>
       </c>
-      <c r="B86" t="str">
-        <f t="shared" si="1"/>
+      <c r="B86" s="2">
         <v>1</v>
       </c>
       <c r="C86">
@@ -3729,31 +3908,33 @@
       <c r="D86">
         <v>52</v>
       </c>
-      <c r="E86">
-        <v>0</v>
+      <c r="E86" s="2">
+        <v>1</v>
       </c>
       <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>25</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>6.21</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>11.5</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87" t="str">
-        <f t="shared" si="1"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>1</v>
+      </c>
+      <c r="B87" s="2">
         <v>0</v>
       </c>
       <c r="C87">
@@ -3762,31 +3943,33 @@
       <c r="D87">
         <v>73</v>
       </c>
-      <c r="E87">
-        <v>0</v>
+      <c r="E87" s="2">
+        <v>2</v>
       </c>
       <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
         <v>0.05</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>14.8</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>4.1399999999999997</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>15.5</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>1.41</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
         <v>21</v>
       </c>
-      <c r="B88" t="str">
-        <f t="shared" si="1"/>
+      <c r="B88" s="2">
         <v>0</v>
       </c>
       <c r="C88">
@@ -3795,31 +3978,33 @@
       <c r="D88">
         <v>70</v>
       </c>
-      <c r="E88">
-        <v>1</v>
+      <c r="E88" s="2">
+        <v>2</v>
       </c>
       <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
         <v>0.16</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>19.2</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>5.25</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>11</v>
       </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89">
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
         <v>55</v>
       </c>
-      <c r="B89" t="str">
-        <f t="shared" si="1"/>
+      <c r="B89" s="2">
         <v>1</v>
       </c>
       <c r="C89">
@@ -3828,31 +4013,33 @@
       <c r="D89">
         <v>55</v>
       </c>
-      <c r="E89">
-        <v>0</v>
+      <c r="E89" s="2">
+        <v>1</v>
       </c>
       <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>5.5</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>4.4800000000000004</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>22</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>1.83</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
         <v>15</v>
       </c>
-      <c r="B90" t="str">
-        <f t="shared" si="1"/>
+      <c r="B90" s="2">
         <v>0</v>
       </c>
       <c r="C90">
@@ -3861,31 +4048,33 @@
       <c r="D90">
         <v>60</v>
       </c>
-      <c r="E90">
-        <v>0</v>
+      <c r="E90" s="2">
+        <v>1</v>
       </c>
       <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
         <v>0.18</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>4.5599999999999996</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>13.5</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>1.04</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
         <v>0.5</v>
       </c>
-      <c r="B91" t="str">
-        <f t="shared" si="1"/>
+      <c r="B91" s="2">
         <v>0</v>
       </c>
       <c r="C91">
@@ -3894,31 +4083,33 @@
       <c r="D91">
         <v>67</v>
       </c>
-      <c r="E91">
-        <v>0</v>
+      <c r="E91" s="2">
+        <v>2</v>
       </c>
       <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
         <v>0.155</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>11.3</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>5.16</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>13</v>
       </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92">
+      <c r="K91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
         <v>35</v>
       </c>
-      <c r="B92" t="str">
-        <f t="shared" si="1"/>
+      <c r="B92" s="2">
         <v>1</v>
       </c>
       <c r="C92">
@@ -3927,31 +4118,33 @@
       <c r="D92">
         <v>64</v>
       </c>
-      <c r="E92">
-        <v>0</v>
+      <c r="E92" s="2">
+        <v>1</v>
       </c>
       <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
         <v>0.3</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>6.6</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>4.3600000000000003</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>14</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>1.27</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
         <v>53</v>
       </c>
-      <c r="B93" t="str">
-        <f t="shared" si="1"/>
+      <c r="B93" s="2">
         <v>1</v>
       </c>
       <c r="C93">
@@ -3960,31 +4153,33 @@
       <c r="D93">
         <v>59</v>
       </c>
-      <c r="E93">
-        <v>0</v>
+      <c r="E93" s="2">
+        <v>1</v>
       </c>
       <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
         <v>0.34399999999999997</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>9.1</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>4.04</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>9</v>
       </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94">
+      <c r="K93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
         <v>33</v>
       </c>
-      <c r="B94" t="str">
-        <f t="shared" si="1"/>
+      <c r="B94" s="2">
         <v>1</v>
       </c>
       <c r="C94">
@@ -3993,31 +4188,33 @@
       <c r="D94">
         <v>46</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <v>0</v>
       </c>
       <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
         <v>0.27200000000000002</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>16.5</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>5.36</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>12.67</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>1.06</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
         <v>33</v>
       </c>
-      <c r="B95" t="str">
-        <f t="shared" si="1"/>
+      <c r="B95" s="2">
         <v>1</v>
       </c>
       <c r="C95">
@@ -4026,31 +4223,33 @@
       <c r="D95">
         <v>63</v>
       </c>
-      <c r="E95">
-        <v>0</v>
+      <c r="E95" s="2">
+        <v>1</v>
       </c>
       <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
         <v>0.25</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>5.6</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>3.87</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>18</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>1.5</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
         <v>40</v>
       </c>
-      <c r="B96" t="str">
-        <f t="shared" si="1"/>
+      <c r="B96" s="2">
         <v>0</v>
       </c>
       <c r="C96">
@@ -4059,31 +4258,33 @@
       <c r="D96">
         <v>74</v>
       </c>
-      <c r="E96">
-        <v>0</v>
+      <c r="E96" s="2">
+        <v>2</v>
       </c>
       <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
         <v>0.2</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>4.8</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>4.5599999999999996</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>12.5</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>1.04</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
         <v>33</v>
       </c>
-      <c r="B97" t="str">
-        <f t="shared" si="1"/>
+      <c r="B97" s="2">
         <v>1</v>
       </c>
       <c r="C97">
@@ -4092,31 +4293,33 @@
       <c r="D97">
         <v>59</v>
       </c>
-      <c r="E97">
-        <v>0</v>
+      <c r="E97" s="2">
+        <v>1</v>
       </c>
       <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
         <v>0.5</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>9.1</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>3.42</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>18</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>1.5</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
         <v>5</v>
       </c>
-      <c r="B98" t="str">
-        <f t="shared" si="1"/>
+      <c r="B98" s="2">
         <v>0</v>
       </c>
       <c r="C98">
@@ -4125,31 +4328,33 @@
       <c r="D98">
         <v>65</v>
       </c>
-      <c r="E98">
-        <v>1</v>
+      <c r="E98" s="2">
+        <v>2</v>
       </c>
       <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
         <v>0.16</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>8.5</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>5.47</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>16</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>1.45</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
         <v>4</v>
       </c>
-      <c r="B99" t="str">
-        <f t="shared" si="1"/>
+      <c r="B99" s="2">
         <v>0</v>
       </c>
       <c r="C99">
@@ -4158,31 +4363,33 @@
       <c r="D99">
         <v>58</v>
       </c>
-      <c r="E99">
-        <v>0</v>
+      <c r="E99" s="2">
+        <v>1</v>
       </c>
       <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
         <v>0.17</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>28.9</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>6.73</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>26.08</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
         <v>31</v>
       </c>
-      <c r="B100" t="str">
-        <f t="shared" si="1"/>
+      <c r="B100" s="2">
         <v>1</v>
       </c>
       <c r="C100">
@@ -4191,31 +4398,33 @@
       <c r="D100">
         <v>53</v>
       </c>
-      <c r="E100">
-        <v>0</v>
+      <c r="E100" s="2">
+        <v>1</v>
       </c>
       <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
         <v>0.17</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>8</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>4.6900000000000004</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>10</v>
       </c>
-      <c r="J100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101">
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
         <v>33</v>
       </c>
-      <c r="B101" t="str">
-        <f t="shared" si="1"/>
+      <c r="B101" s="2">
         <v>1</v>
       </c>
       <c r="C101">
@@ -4224,31 +4433,33 @@
       <c r="D101">
         <v>66</v>
       </c>
-      <c r="E101">
-        <v>0</v>
+      <c r="E101" s="2">
+        <v>2</v>
       </c>
       <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
         <v>0.2</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>8</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>4.2300000000000004</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>12</v>
       </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102">
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
         <v>22</v>
       </c>
-      <c r="B102" t="str">
-        <f t="shared" si="1"/>
+      <c r="B102" s="2">
         <v>1</v>
       </c>
       <c r="C102">
@@ -4257,31 +4468,33 @@
       <c r="D102">
         <v>70</v>
       </c>
-      <c r="E102">
-        <v>0</v>
+      <c r="E102" s="2">
+        <v>2</v>
       </c>
       <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
         <v>0.38</v>
       </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
       <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>4.55</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>10</v>
       </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103">
+      <c r="K102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
         <v>25</v>
       </c>
-      <c r="B103" t="str">
-        <f t="shared" si="1"/>
+      <c r="B103" s="2">
         <v>1</v>
       </c>
       <c r="C103">
@@ -4290,31 +4503,33 @@
       <c r="D103">
         <v>62</v>
       </c>
-      <c r="E103">
-        <v>0</v>
+      <c r="E103" s="2">
+        <v>1</v>
       </c>
       <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
         <v>0.25800000000000001</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>11.8</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>4.87</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>11</v>
       </c>
-      <c r="J103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104">
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
         <v>1.25</v>
       </c>
-      <c r="B104" t="str">
-        <f t="shared" si="1"/>
+      <c r="B104" s="2">
         <v>0</v>
       </c>
       <c r="C104">
@@ -4323,31 +4538,33 @@
       <c r="D104">
         <v>63</v>
       </c>
-      <c r="E104">
-        <v>0</v>
+      <c r="E104" s="2">
+        <v>1</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0.3</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>6.9</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>3.52</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>18.16</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>1.51</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A105">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
         <v>24</v>
       </c>
-      <c r="B105" t="str">
-        <f t="shared" si="1"/>
+      <c r="B105" s="2">
         <v>1</v>
       </c>
       <c r="C105">
@@ -4356,31 +4573,33 @@
       <c r="D105">
         <v>59</v>
       </c>
-      <c r="E105">
-        <v>0</v>
+      <c r="E105" s="2">
+        <v>1</v>
       </c>
       <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
         <v>0.17</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>14.3</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>5.49</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>13.5</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>1.5</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A106">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
         <v>25</v>
       </c>
-      <c r="B106" t="str">
-        <f t="shared" si="1"/>
+      <c r="B106" s="2">
         <v>1</v>
       </c>
       <c r="C106">
@@ -4389,31 +4608,33 @@
       <c r="D106">
         <v>57</v>
       </c>
-      <c r="E106">
-        <v>0</v>
+      <c r="E106" s="2">
+        <v>1</v>
       </c>
       <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
         <v>0.22800000000000001</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>4.29</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>11</v>
       </c>
-      <c r="J106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A107">
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
         <v>24</v>
       </c>
-      <c r="B107" t="str">
-        <f t="shared" si="1"/>
+      <c r="B107" s="2">
         <v>1</v>
       </c>
       <c r="C107">
@@ -4422,31 +4643,33 @@
       <c r="D107">
         <v>57</v>
       </c>
-      <c r="E107">
-        <v>0</v>
+      <c r="E107" s="2">
+        <v>1</v>
       </c>
       <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>7</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>4.12</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>13.5</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>1.23</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A108">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
         <v>0.75</v>
       </c>
-      <c r="B108" t="str">
-        <f t="shared" si="1"/>
+      <c r="B108" s="2">
         <v>0</v>
       </c>
       <c r="C108">
@@ -4455,31 +4678,33 @@
       <c r="D108">
         <v>78</v>
       </c>
-      <c r="E108">
-        <v>0</v>
+      <c r="E108" s="2">
+        <v>2</v>
       </c>
       <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
         <v>0.23</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>40</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>6.23</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>14</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>1.4</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A109">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
         <v>3</v>
       </c>
-      <c r="B109" t="str">
-        <f t="shared" si="1"/>
+      <c r="B109" s="2">
         <v>0</v>
       </c>
       <c r="C109">
@@ -4488,31 +4713,33 @@
       <c r="D109">
         <v>62</v>
       </c>
-      <c r="E109">
-        <v>0</v>
+      <c r="E109" s="2">
+        <v>1</v>
       </c>
       <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
         <v>0.26</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>7.6</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>4.42</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>14</v>
       </c>
-      <c r="J109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A110">
+      <c r="K109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
         <v>27</v>
       </c>
-      <c r="B110" t="str">
-        <f t="shared" si="1"/>
+      <c r="B110" s="2">
         <v>1</v>
       </c>
       <c r="C110">
@@ -4521,31 +4748,33 @@
       <c r="D110">
         <v>62</v>
       </c>
-      <c r="E110">
-        <v>0</v>
+      <c r="E110" s="2">
+        <v>1</v>
       </c>
       <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
         <v>0.22</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>12.1</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>3.92</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>11</v>
       </c>
-      <c r="J110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A111">
+      <c r="K110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
         <v>13</v>
       </c>
-      <c r="B111" t="str">
-        <f t="shared" si="1"/>
+      <c r="B111" s="2">
         <v>1</v>
       </c>
       <c r="C111">
@@ -4554,31 +4783,33 @@
       <c r="D111">
         <v>66</v>
       </c>
-      <c r="E111">
-        <v>0</v>
+      <c r="E111" s="2">
+        <v>2</v>
       </c>
       <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
         <v>0.24</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>13.6</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>4.38</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>22</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A112">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
         <v>36</v>
       </c>
-      <c r="B112" t="str">
-        <f t="shared" si="1"/>
+      <c r="B112" s="2">
         <v>1</v>
       </c>
       <c r="C112">
@@ -4587,31 +4818,33 @@
       <c r="D112">
         <v>61</v>
       </c>
-      <c r="E112">
-        <v>0</v>
+      <c r="E112" s="2">
+        <v>1</v>
       </c>
       <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
         <v>0.27</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>9</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>4.0599999999999996</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>12</v>
       </c>
-      <c r="J112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A113">
+      <c r="K112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
         <v>25</v>
       </c>
-      <c r="B113" t="str">
-        <f t="shared" si="1"/>
+      <c r="B113" s="2">
         <v>1</v>
       </c>
       <c r="C113">
@@ -4620,31 +4853,33 @@
       <c r="D113">
         <v>59</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="2">
         <v>1</v>
       </c>
       <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
         <v>0.4</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>5.36</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>12</v>
       </c>
-      <c r="J113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A114">
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
         <v>27</v>
       </c>
-      <c r="B114" t="str">
-        <f t="shared" si="1"/>
+      <c r="B114" s="2">
         <v>1</v>
       </c>
       <c r="C114">
@@ -4653,31 +4888,33 @@
       <c r="D114">
         <v>57</v>
       </c>
-      <c r="E114">
-        <v>0</v>
+      <c r="E114" s="2">
+        <v>1</v>
       </c>
       <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>9.4</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>4.7699999999999996</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>9</v>
       </c>
-      <c r="J114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A115">
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
         <v>34</v>
       </c>
-      <c r="B115" t="str">
-        <f t="shared" si="1"/>
+      <c r="B115" s="2">
         <v>1</v>
       </c>
       <c r="C115">
@@ -4686,31 +4923,33 @@
       <c r="D115">
         <v>62</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="2">
         <v>1</v>
       </c>
       <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
         <v>0.19</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>28.9</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>6.63</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>19.5</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>1.95</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A116">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
         <v>37</v>
       </c>
-      <c r="B116" t="str">
-        <f t="shared" si="1"/>
+      <c r="B116" s="2">
         <v>1</v>
       </c>
       <c r="C116">
@@ -4719,31 +4958,33 @@
       <c r="D116" t="s">
         <v>8</v>
       </c>
-      <c r="E116">
-        <v>0</v>
+      <c r="E116" s="2">
+        <v>2</v>
       </c>
       <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
         <v>0.26</v>
       </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
       <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
         <v>4.38</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>9</v>
       </c>
-      <c r="J116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A117">
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
         <v>34</v>
       </c>
-      <c r="B117" t="str">
-        <f t="shared" si="1"/>
+      <c r="B117" s="2">
         <v>1</v>
       </c>
       <c r="C117">
@@ -4752,31 +4993,33 @@
       <c r="D117">
         <v>54</v>
       </c>
-      <c r="E117">
-        <v>0</v>
+      <c r="E117" s="2">
+        <v>1</v>
       </c>
       <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
         <v>0.43</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>4.79</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>10</v>
       </c>
-      <c r="J117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A118">
+      <c r="K117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
         <v>28</v>
       </c>
-      <c r="B118" t="str">
-        <f t="shared" si="1"/>
+      <c r="B118" s="2">
         <v>0</v>
       </c>
       <c r="C118">
@@ -4785,31 +5028,33 @@
       <c r="D118">
         <v>62</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="2">
         <v>1</v>
       </c>
       <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
         <v>0.24</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>28.6</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>5.86</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>21.5</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>1.95</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A119">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
         <v>28</v>
       </c>
-      <c r="B119" t="str">
-        <f t="shared" si="1"/>
+      <c r="B119" s="2">
         <v>1</v>
       </c>
       <c r="C119">
@@ -4818,31 +5063,33 @@
       <c r="D119" t="s">
         <v>8</v>
       </c>
-      <c r="E119">
-        <v>0</v>
+      <c r="E119" s="2">
+        <v>2</v>
       </c>
       <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
         <v>0.23</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>19.100000000000001</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>5.49</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>12</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>1.2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A120">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
         <v>17</v>
       </c>
-      <c r="B120" t="str">
-        <f t="shared" si="1"/>
+      <c r="B120" s="2">
         <v>1</v>
       </c>
       <c r="C120">
@@ -4851,31 +5098,33 @@
       <c r="D120">
         <v>64</v>
       </c>
-      <c r="E120">
-        <v>0</v>
+      <c r="E120" s="2">
+        <v>1</v>
       </c>
       <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
         <v>0.15</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>6.6</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>4.17</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>14</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>1.27</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A121">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
         <v>38</v>
       </c>
-      <c r="B121" t="str">
-        <f t="shared" si="1"/>
+      <c r="B121" s="2">
         <v>1</v>
       </c>
       <c r="C121">
@@ -4884,31 +5133,33 @@
       <c r="D121">
         <v>57</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="2">
         <v>1</v>
       </c>
       <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
         <v>0.12</v>
       </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>2.3199999999999998</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>16.5</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>1.375</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A122">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
         <v>31</v>
       </c>
-      <c r="B122" t="str">
-        <f t="shared" si="1"/>
+      <c r="B122" s="2">
         <v>1</v>
       </c>
       <c r="C122">
@@ -4917,31 +5168,33 @@
       <c r="D122">
         <v>61</v>
       </c>
-      <c r="E122">
-        <v>0</v>
+      <c r="E122" s="2">
+        <v>1</v>
       </c>
       <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
         <v>0.18</v>
       </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
         <v>4.4800000000000004</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>11</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>1.375</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A123">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
         <v>12</v>
       </c>
-      <c r="B123" t="str">
-        <f t="shared" si="1"/>
+      <c r="B123" s="2">
         <v>1</v>
       </c>
       <c r="C123">
@@ -4950,31 +5203,33 @@
       <c r="D123">
         <v>61</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="2">
         <v>1</v>
       </c>
       <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
         <v>0.19</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>13.2</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>5.04</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>19</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>1.73</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A124">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
         <v>36</v>
       </c>
-      <c r="B124" t="str">
-        <f t="shared" si="1"/>
+      <c r="B124" s="2">
         <v>1</v>
       </c>
       <c r="C124">
@@ -4983,31 +5238,33 @@
       <c r="D124">
         <v>48</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="2">
         <v>0</v>
       </c>
       <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
         <v>0.15</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>12</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>3.66</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>10</v>
       </c>
-      <c r="J124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A125">
+      <c r="K124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
         <v>17</v>
       </c>
-      <c r="B125" t="str">
-        <f t="shared" si="1"/>
+      <c r="B125" s="2">
         <v>1</v>
       </c>
       <c r="C125">
@@ -5016,31 +5273,33 @@
       <c r="D125" t="s">
         <v>8</v>
       </c>
-      <c r="E125">
-        <v>0</v>
+      <c r="E125" s="2">
+        <v>2</v>
       </c>
       <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
         <v>0.09</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>6.8</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>4.96</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>13</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>1.08</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A126">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
         <v>21</v>
       </c>
-      <c r="B126" t="str">
-        <f t="shared" si="1"/>
+      <c r="B126" s="2">
         <v>1</v>
       </c>
       <c r="C126">
@@ -5049,31 +5308,33 @@
       <c r="D126">
         <v>61</v>
       </c>
-      <c r="E126">
-        <v>0</v>
+      <c r="E126" s="2">
+        <v>1</v>
       </c>
       <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>25.5</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>5.16</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>14</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>1.27</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A127">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
         <v>7.5</v>
       </c>
-      <c r="B127" t="str">
-        <f t="shared" si="1"/>
+      <c r="B127" s="2">
         <v>0</v>
       </c>
       <c r="C127">
@@ -5082,31 +5343,33 @@
       <c r="D127">
         <v>64</v>
       </c>
-      <c r="E127">
-        <v>0</v>
+      <c r="E127" s="2">
+        <v>1</v>
       </c>
       <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
         <v>0.24</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>12.9</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>4.72</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>12</v>
       </c>
-      <c r="J127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A128">
+      <c r="K127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
         <v>41</v>
       </c>
-      <c r="B128" t="str">
-        <f t="shared" si="1"/>
+      <c r="B128" s="2">
         <v>1</v>
       </c>
       <c r="C128">
@@ -5115,31 +5378,33 @@
       <c r="D128">
         <v>64</v>
       </c>
-      <c r="E128">
-        <v>0</v>
+      <c r="E128" s="2">
+        <v>1</v>
       </c>
       <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>5.4</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>5.47</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>11</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A129">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
         <v>36</v>
       </c>
-      <c r="B129" t="str">
-        <f t="shared" si="1"/>
+      <c r="B129" s="2">
         <v>1</v>
       </c>
       <c r="C129">
@@ -5148,31 +5413,33 @@
       <c r="D129">
         <v>69</v>
       </c>
-      <c r="E129">
-        <v>0</v>
+      <c r="E129" s="2">
+        <v>2</v>
       </c>
       <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
         <v>0.2</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>7</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>5.05</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>14.5</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>1.21</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A130">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
         <v>22</v>
       </c>
-      <c r="B130" t="str">
-        <f t="shared" si="1"/>
+      <c r="B130" s="2">
         <v>1</v>
       </c>
       <c r="C130">
@@ -5181,31 +5448,33 @@
       <c r="D130">
         <v>57</v>
       </c>
-      <c r="E130">
-        <v>0</v>
+      <c r="E130" s="2">
+        <v>1</v>
       </c>
       <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>16.100000000000001</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>4.3600000000000003</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>15</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>1.36</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A131">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
         <v>20</v>
       </c>
-      <c r="B131" t="str">
-        <f t="shared" ref="B131" si="2">IF(C131=0,"1","0")</f>
+      <c r="B131" s="2">
         <v>1</v>
       </c>
       <c r="C131">
@@ -5214,22 +5483,25 @@
       <c r="D131">
         <v>62</v>
       </c>
-      <c r="E131">
-        <v>0</v>
+      <c r="E131" s="2">
+        <v>1</v>
       </c>
       <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
         <v>0.15</v>
       </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
       <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
         <v>4.51</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>15.5</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>1.409</v>
       </c>
     </row>

--- a/df.xlsx
+++ b/df.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\578project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steamboat II\Documents\R\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6D5A00-43F3-4092-BFC4-00FEC08B8BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46CF77D-7230-4AA1-89F0-F1F3389AEC05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="390" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="1275" windowWidth="28800" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">df!$K$2:$K$131</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">df!$K$2:$K$131</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>Survival</t>
   </si>
@@ -66,6 +70,9 @@
   </si>
   <si>
     <t>Age.Strata</t>
+  </si>
+  <si>
+    <t>WMI.S</t>
   </si>
 </sst>
 </file>
@@ -908,19 +915,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="11" max="11" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,8 +961,11 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -989,8 +999,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>19</v>
       </c>
@@ -1024,8 +1037,11 @@
       <c r="K3">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>16</v>
       </c>
@@ -1059,8 +1075,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>57</v>
       </c>
@@ -1094,8 +1113,11 @@
       <c r="K5">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>19</v>
       </c>
@@ -1129,8 +1151,11 @@
       <c r="K6">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>26</v>
       </c>
@@ -1164,8 +1189,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>13</v>
       </c>
@@ -1199,8 +1227,11 @@
       <c r="K8">
         <v>1.875</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>50</v>
       </c>
@@ -1234,8 +1265,11 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>19</v>
       </c>
@@ -1269,8 +1303,11 @@
       <c r="K10">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1304,8 +1341,11 @@
       <c r="K11">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1339,8 +1379,11 @@
       <c r="K12">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>52</v>
       </c>
@@ -1374,8 +1417,11 @@
       <c r="K13">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>52</v>
       </c>
@@ -1409,8 +1455,11 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44</v>
       </c>
@@ -1444,8 +1493,11 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.5</v>
       </c>
@@ -1479,8 +1531,11 @@
       <c r="K16">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>24</v>
       </c>
@@ -1514,8 +1569,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.5</v>
       </c>
@@ -1549,8 +1607,11 @@
       <c r="K18">
         <v>1.64</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.5</v>
       </c>
@@ -1584,8 +1645,11 @@
       <c r="K19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>22</v>
       </c>
@@ -1619,8 +1683,11 @@
       <c r="K20">
         <v>1.333</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1654,8 +1721,11 @@
       <c r="K21">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.75</v>
       </c>
@@ -1689,8 +1759,11 @@
       <c r="K22">
         <v>1.625</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.75</v>
       </c>
@@ -1724,8 +1797,11 @@
       <c r="K23">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.5</v>
       </c>
@@ -1759,8 +1835,11 @@
       <c r="K24">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1794,8 +1873,11 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>48</v>
       </c>
@@ -1829,8 +1911,11 @@
       <c r="K26">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>29</v>
       </c>
@@ -1864,8 +1949,11 @@
       <c r="K27">
         <v>1.667</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -1899,8 +1987,11 @@
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1934,8 +2025,11 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.25</v>
       </c>
@@ -1969,8 +2063,11 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>36</v>
       </c>
@@ -2004,8 +2101,11 @@
       <c r="K31">
         <v>1.56</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -2039,8 +2139,11 @@
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -2074,8 +2177,11 @@
       <c r="K33">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -2109,8 +2215,11 @@
       <c r="K34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -2144,8 +2253,11 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2179,8 +2291,11 @@
       <c r="K36">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>26</v>
       </c>
@@ -2214,8 +2329,11 @@
       <c r="K37">
         <v>1.625</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>16</v>
       </c>
@@ -2249,8 +2367,11 @@
       <c r="K38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -2284,8 +2405,11 @@
       <c r="K39">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>19</v>
       </c>
@@ -2319,8 +2443,11 @@
       <c r="K40">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>31</v>
       </c>
@@ -2354,8 +2481,11 @@
       <c r="K41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>32</v>
       </c>
@@ -2389,8 +2519,11 @@
       <c r="K42">
         <v>1.222</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -2424,8 +2557,11 @@
       <c r="K43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -2459,8 +2595,11 @@
       <c r="K44">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46</v>
       </c>
@@ -2494,8 +2633,11 @@
       <c r="K45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -2529,8 +2671,11 @@
       <c r="K46">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>37</v>
       </c>
@@ -2564,8 +2709,11 @@
       <c r="K47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>19.5</v>
       </c>
@@ -2599,8 +2747,11 @@
       <c r="K48">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>20</v>
       </c>
@@ -2634,8 +2785,11 @@
       <c r="K49">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.25</v>
       </c>
@@ -2669,8 +2823,11 @@
       <c r="K50">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -2704,8 +2861,11 @@
       <c r="K51" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>7</v>
       </c>
@@ -2739,8 +2899,11 @@
       <c r="K52">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>10</v>
       </c>
@@ -2774,8 +2937,11 @@
       <c r="K53">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>12</v>
       </c>
@@ -2809,8 +2975,11 @@
       <c r="K54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -2844,8 +3013,11 @@
       <c r="K55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>10</v>
       </c>
@@ -2879,8 +3051,11 @@
       <c r="K56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45</v>
       </c>
@@ -2914,8 +3089,11 @@
       <c r="K57">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>22</v>
       </c>
@@ -2949,8 +3127,11 @@
       <c r="K58">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>53</v>
       </c>
@@ -2984,8 +3165,11 @@
       <c r="K59">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>38</v>
       </c>
@@ -3019,8 +3203,11 @@
       <c r="K60">
         <v>1.167</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>26</v>
       </c>
@@ -3054,8 +3241,11 @@
       <c r="K61">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>9</v>
       </c>
@@ -3089,8 +3279,11 @@
       <c r="K62">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>26</v>
       </c>
@@ -3124,8 +3317,11 @@
       <c r="K63">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.5</v>
       </c>
@@ -3159,8 +3355,11 @@
       <c r="K64">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>12</v>
       </c>
@@ -3194,8 +3393,11 @@
       <c r="K65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>49</v>
       </c>
@@ -3229,8 +3431,11 @@
       <c r="K66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.75</v>
       </c>
@@ -3264,8 +3469,11 @@
       <c r="K67">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>49</v>
       </c>
@@ -3299,8 +3507,11 @@
       <c r="K68">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>47</v>
       </c>
@@ -3334,8 +3545,11 @@
       <c r="K69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>41</v>
       </c>
@@ -3369,8 +3583,11 @@
       <c r="K70">
         <v>1.367</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.25</v>
       </c>
@@ -3404,8 +3621,11 @@
       <c r="K71">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>33</v>
       </c>
@@ -3439,8 +3659,11 @@
       <c r="K72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>29</v>
       </c>
@@ -3474,8 +3697,11 @@
       <c r="K73">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41</v>
       </c>
@@ -3509,8 +3735,11 @@
       <c r="K74">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>26</v>
       </c>
@@ -3544,8 +3773,11 @@
       <c r="K75">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>15</v>
       </c>
@@ -3579,8 +3811,11 @@
       <c r="K76">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.25</v>
       </c>
@@ -3614,8 +3849,11 @@
       <c r="K77">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.03</v>
       </c>
@@ -3649,8 +3887,11 @@
       <c r="K78">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>12</v>
       </c>
@@ -3684,8 +3925,11 @@
       <c r="K79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>32</v>
       </c>
@@ -3719,8 +3963,11 @@
       <c r="K80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>32</v>
       </c>
@@ -3754,8 +4001,11 @@
       <c r="K81">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>27</v>
       </c>
@@ -3789,8 +4039,11 @@
       <c r="K82">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>23</v>
       </c>
@@ -3824,8 +4077,11 @@
       <c r="K83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.75</v>
       </c>
@@ -3859,8 +4115,11 @@
       <c r="K84">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.75</v>
       </c>
@@ -3894,8 +4153,11 @@
       <c r="K85">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>34</v>
       </c>
@@ -3929,8 +4191,11 @@
       <c r="K86">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -3964,8 +4229,11 @@
       <c r="K87">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>21</v>
       </c>
@@ -3999,8 +4267,11 @@
       <c r="K88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>55</v>
       </c>
@@ -4034,8 +4305,11 @@
       <c r="K89">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -4069,8 +4343,11 @@
       <c r="K90">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.5</v>
       </c>
@@ -4104,8 +4381,11 @@
       <c r="K91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>35</v>
       </c>
@@ -4139,8 +4419,11 @@
       <c r="K92">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>53</v>
       </c>
@@ -4174,8 +4457,11 @@
       <c r="K93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>33</v>
       </c>
@@ -4209,8 +4495,11 @@
       <c r="K94">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>33</v>
       </c>
@@ -4244,8 +4533,11 @@
       <c r="K95">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>40</v>
       </c>
@@ -4279,8 +4571,11 @@
       <c r="K96">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>33</v>
       </c>
@@ -4314,8 +4609,11 @@
       <c r="K97">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>5</v>
       </c>
@@ -4349,8 +4647,11 @@
       <c r="K98">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>4</v>
       </c>
@@ -4384,8 +4685,11 @@
       <c r="K99">
         <v>2.0099999999999998</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>31</v>
       </c>
@@ -4419,8 +4723,11 @@
       <c r="K100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>33</v>
       </c>
@@ -4454,8 +4761,11 @@
       <c r="K101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>22</v>
       </c>
@@ -4489,8 +4799,11 @@
       <c r="K102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>25</v>
       </c>
@@ -4524,8 +4837,11 @@
       <c r="K103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1.25</v>
       </c>
@@ -4559,8 +4875,11 @@
       <c r="K104">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>24</v>
       </c>
@@ -4594,8 +4913,11 @@
       <c r="K105">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>25</v>
       </c>
@@ -4629,8 +4951,11 @@
       <c r="K106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>24</v>
       </c>
@@ -4664,8 +4989,11 @@
       <c r="K107">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>0.75</v>
       </c>
@@ -4699,8 +5027,11 @@
       <c r="K108">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>3</v>
       </c>
@@ -4734,8 +5065,11 @@
       <c r="K109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>27</v>
       </c>
@@ -4769,8 +5103,11 @@
       <c r="K110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>13</v>
       </c>
@@ -4804,8 +5141,11 @@
       <c r="K111">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>36</v>
       </c>
@@ -4839,8 +5179,11 @@
       <c r="K112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>25</v>
       </c>
@@ -4874,8 +5217,11 @@
       <c r="K113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>27</v>
       </c>
@@ -4909,8 +5255,11 @@
       <c r="K114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>34</v>
       </c>
@@ -4944,8 +5293,11 @@
       <c r="K115">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>37</v>
       </c>
@@ -4979,8 +5331,11 @@
       <c r="K116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>34</v>
       </c>
@@ -5014,8 +5369,11 @@
       <c r="K117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>28</v>
       </c>
@@ -5049,8 +5407,11 @@
       <c r="K118">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>28</v>
       </c>
@@ -5084,8 +5445,11 @@
       <c r="K119">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>17</v>
       </c>
@@ -5119,8 +5483,11 @@
       <c r="K120">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>38</v>
       </c>
@@ -5154,8 +5521,11 @@
       <c r="K121">
         <v>1.375</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>31</v>
       </c>
@@ -5189,8 +5559,11 @@
       <c r="K122">
         <v>1.375</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>12</v>
       </c>
@@ -5224,8 +5597,11 @@
       <c r="K123">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>36</v>
       </c>
@@ -5259,8 +5635,11 @@
       <c r="K124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>17</v>
       </c>
@@ -5294,8 +5673,11 @@
       <c r="K125">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>21</v>
       </c>
@@ -5329,8 +5711,11 @@
       <c r="K126">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>7.5</v>
       </c>
@@ -5364,8 +5749,11 @@
       <c r="K127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>41</v>
       </c>
@@ -5399,8 +5787,11 @@
       <c r="K128">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>36</v>
       </c>
@@ -5434,8 +5825,11 @@
       <c r="K129">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>22</v>
       </c>
@@ -5469,8 +5863,11 @@
       <c r="K130">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>20</v>
       </c>
@@ -5503,6 +5900,9 @@
       </c>
       <c r="K131">
         <v>1.409</v>
+      </c>
+      <c r="L131" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/df.xlsx
+++ b/df.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steamboat II\Documents\R\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46CF77D-7230-4AA1-89F0-F1F3389AEC05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77A202C-5715-48CE-B93D-598BBC6BA0EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1275" windowWidth="28800" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="1860" windowWidth="28800" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">df!$K$2:$K$131</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">df!$K$2:$K$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">df!$A$1:$L$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Survival</t>
   </si>
@@ -58,9 +57,6 @@
   </si>
   <si>
     <t>WMI</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Alive.E</t>
@@ -556,10 +552,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -918,7 +913,7 @@
   <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -962,44 +957,44 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>71</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.26</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>9</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>14</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1007,37 +1002,37 @@
       <c r="A3" s="1">
         <v>19</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>72</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.38</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>6</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>14</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>1.7</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1045,37 +1040,37 @@
       <c r="A4" s="1">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>55</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.26</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>3.42</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>14</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1083,37 +1078,37 @@
       <c r="A5" s="1">
         <v>57</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>60</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.253</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>12.061999999999999</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>4.6029999999999998</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>16</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>1.45</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1121,37 +1116,37 @@
       <c r="A6" s="1">
         <v>19</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>57</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.16</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>22</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>5.75</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>18</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>2.25</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1159,37 +1154,37 @@
       <c r="A7" s="1">
         <v>26</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>68</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>0.26</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>4.3099999999999996</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>12</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1197,37 +1192,37 @@
       <c r="A8" s="1">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>62</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.23</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>31</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>5.43</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>22.5</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>1.875</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1235,37 +1230,37 @@
       <c r="A9" s="1">
         <v>50</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <v>60</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <v>0.33</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>8</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>5.25</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>14</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1273,37 +1268,37 @@
       <c r="A10" s="1">
         <v>19</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <v>46</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.34</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>5.09</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>16</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1311,37 +1306,37 @@
       <c r="A11" s="1">
         <v>25</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <v>54</v>
       </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>13</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>4.49</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>15.5</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>1.19</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1349,37 +1344,37 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <v>77</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.13</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>16</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>4.2300000000000004</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>18</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>1.8</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1387,37 +1382,37 @@
       <c r="A13" s="1">
         <v>52</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
         <v>62</v>
       </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
         <v>0.45</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>9</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>3.6</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>16</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1425,37 +1420,37 @@
       <c r="A14" s="1">
         <v>52</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
         <v>73</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <v>0.33</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>6</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>4</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>14</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1463,37 +1458,37 @@
       <c r="A15" s="1">
         <v>44</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
         <v>60</v>
       </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <v>0.15</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>10</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>3.73</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>14</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1501,37 +1496,37 @@
       <c r="A16" s="1">
         <v>0.5</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
         <v>62</v>
       </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <v>0.12</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>23</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>5.8</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>11.67</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>2.33</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1539,37 +1534,37 @@
       <c r="A17" s="1">
         <v>24</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
         <v>55</v>
       </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <v>0.25</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>12.063000000000001</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>4.29</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>14</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1577,37 +1572,37 @@
       <c r="A18" s="1">
         <v>0.5</v>
       </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <v>69</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
         <v>0.26</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>11</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>18</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>1.64</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1615,37 +1610,37 @@
       <c r="A19" s="1">
         <v>0.5</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
         <v>62.53</v>
       </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>20</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>5.2</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>24</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>2</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1653,37 +1648,37 @@
       <c r="A20" s="1">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
         <v>66</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
         <v>0.09</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>17</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>5.819</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>8</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>1.333</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1691,37 +1686,37 @@
       <c r="A21" s="1">
         <v>1</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
         <v>66</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
         <v>0.22</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>15</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>5.4</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>27</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>2.25</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1729,37 +1724,37 @@
       <c r="A22" s="1">
         <v>0.75</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
         <v>69</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
         <v>0.15</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>12</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>5.39</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>19.5</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>1.625</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1767,37 +1762,37 @@
       <c r="A23" s="1">
         <v>0.75</v>
       </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
         <v>85</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>2</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
         <v>0.18</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>19</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>5.46</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>13.83</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>1.38</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1805,37 +1800,37 @@
       <c r="A24" s="1">
         <v>0.5</v>
       </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
         <v>73</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>2</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
         <v>0.23</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>12.733000000000001</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>6.06</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>7.5</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>1.5</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1843,37 +1838,37 @@
       <c r="A25" s="1">
         <v>5</v>
       </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
         <v>71</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
         <v>0.17</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>8</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1881,37 +1876,37 @@
       <c r="A26" s="1">
         <v>48</v>
       </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
         <v>64</v>
       </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
         <v>0.19</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>5.9</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>3.48</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>10</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1919,37 +1914,37 @@
       <c r="A27" s="1">
         <v>29</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
         <v>54</v>
       </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
         <v>0.3</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>7</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>3.85</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>10</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>1.667</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1957,37 +1952,37 @@
       <c r="A28" s="1">
         <v>29</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
         <v>35</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
         <v>0.3</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>5</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>4.17</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>14</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" s="2">
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1995,37 +1990,33 @@
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
         <v>55</v>
       </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29">
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
         <v>7</v>
       </c>
-      <c r="I29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1">
         <v>2</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" s="2">
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2033,37 +2024,29 @@
       <c r="A30" s="1">
         <v>0.25</v>
       </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
         <v>75</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>2</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2">
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2071,37 +2054,37 @@
       <c r="A31" s="1">
         <v>36</v>
       </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
         <v>55</v>
       </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
         <v>0.21</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>4.2</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>4.16</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>14</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>1.56</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2109,37 +2092,35 @@
       <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
         <v>65</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>2</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
         <v>0.15</v>
       </c>
-      <c r="H32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
         <v>5.05</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>10</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" s="2">
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2147,37 +2128,37 @@
       <c r="A33" s="1">
         <v>1</v>
       </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
         <v>52</v>
       </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
         <v>0.17</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>17.2</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>5.32</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>14</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>1.17</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2185,37 +2166,31 @@
       <c r="A34" s="1">
         <v>3</v>
       </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34">
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1">
         <v>12</v>
       </c>
-      <c r="I34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1">
         <v>6</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>3</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2223,37 +2198,37 @@
       <c r="A35" s="1">
         <v>27</v>
       </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
         <v>47</v>
       </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
         <v>0.4</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>5.12</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>3.1</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1">
         <v>12</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2">
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2261,37 +2236,33 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
         <v>63</v>
       </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36">
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1">
         <v>10</v>
       </c>
-      <c r="I36" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1">
         <v>14</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>1.17</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2299,37 +2270,37 @@
       <c r="A37" s="1">
         <v>26</v>
       </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
         <v>61</v>
       </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
         <v>0.61</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>13.1</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>4.07</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>13</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>1.625</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2337,37 +2308,33 @@
       <c r="A38" s="1">
         <v>16</v>
       </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
         <v>63</v>
       </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38">
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1">
         <v>5.31</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1">
         <v>5</v>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" s="2">
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2375,37 +2342,35 @@
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
         <v>65</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>2</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
         <v>0.06</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>23.6</v>
       </c>
-      <c r="I39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1">
         <v>21.5</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <v>2.15</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2413,37 +2378,35 @@
       <c r="A40" s="1">
         <v>19</v>
       </c>
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
         <v>68</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>2</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
         <v>0.51</v>
       </c>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
         <v>3.88</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="1">
         <v>15</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <v>1.67</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2451,37 +2414,35 @@
       <c r="A41" s="1">
         <v>31</v>
       </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
         <v>80</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>2</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
         <v>0.41</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>5.4</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>4.3600000000000003</v>
       </c>
-      <c r="J41" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2489,37 +2450,37 @@
       <c r="A42" s="1">
         <v>32</v>
       </c>
-      <c r="B42" s="2">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
         <v>54</v>
       </c>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
         <v>0.35</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>3.63</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="1">
         <v>11</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <v>1.222</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2527,37 +2488,37 @@
       <c r="A43" s="1">
         <v>16</v>
       </c>
-      <c r="B43" s="2">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
         <v>70</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>2</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
         <v>0.27</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="1">
         <v>4.7</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="1">
         <v>4.49</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="1">
         <v>22</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="1">
         <v>2</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2565,37 +2526,37 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
         <v>79</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>2</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
         <v>0.15</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>17.5</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="1">
         <v>4.2699999999999996</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="1">
         <v>13</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="1">
         <v>1.3</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2603,37 +2564,35 @@
       <c r="A45" s="1">
         <v>46</v>
       </c>
-      <c r="B45" s="2">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
         <v>56</v>
       </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
         <v>0.33</v>
       </c>
-      <c r="H45" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1">
         <v>3.59</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="1">
         <v>14</v>
       </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" s="2">
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2641,37 +2600,37 @@
       <c r="A46" s="1">
         <v>2</v>
       </c>
-      <c r="B46" s="2">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
         <v>67</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>2</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
         <v>0.44</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>9</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="1">
         <v>3.96</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="1">
         <v>17.5</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <v>1.45</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2679,37 +2638,33 @@
       <c r="A47" s="1">
         <v>37</v>
       </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
         <v>64</v>
       </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
         <v>0.09</v>
       </c>
-      <c r="H47" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1">
         <v>12</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <v>2</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2717,37 +2672,33 @@
       <c r="A48" s="1">
         <v>19.5</v>
       </c>
-      <c r="B48" s="2">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
         <v>81</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>2</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
         <v>0.12</v>
       </c>
-      <c r="H48" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1">
         <v>9</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="1">
         <v>1.25</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2755,37 +2706,37 @@
       <c r="A49" s="1">
         <v>20</v>
       </c>
-      <c r="B49" s="2">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
         <v>59</v>
       </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
         <v>0.03</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <v>21.3</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="1">
         <v>6.29</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="1">
         <v>17</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="1">
         <v>1.31</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2793,37 +2744,31 @@
       <c r="A50" s="1">
         <v>0.25</v>
       </c>
-      <c r="B50" s="2">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
         <v>63</v>
       </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50">
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1">
         <v>23</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2831,37 +2776,33 @@
       <c r="A51" s="1">
         <v>2</v>
       </c>
-      <c r="B51" s="2">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
         <v>56</v>
       </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
         <v>0.04</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="1">
         <v>14</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="1">
         <v>5</v>
       </c>
-      <c r="J51" t="s">
-        <v>8</v>
-      </c>
-      <c r="K51" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" s="2">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2869,37 +2810,33 @@
       <c r="A52" s="1">
         <v>7</v>
       </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
         <v>61</v>
       </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
         <v>0.27</v>
       </c>
-      <c r="H52" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52">
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1">
         <v>9</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="1">
         <v>1.5</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2907,37 +2844,37 @@
       <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
         <v>57</v>
       </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
         <v>0.24</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="1">
         <v>14.8</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="1">
         <v>5.26</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="1">
         <v>18</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="1">
         <v>1.38</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2945,37 +2882,37 @@
       <c r="A54" s="1">
         <v>12</v>
       </c>
-      <c r="B54" s="2">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
         <v>58</v>
       </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
         <v>0.3</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="1">
         <v>9.4</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="1">
         <v>3.49</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="1">
         <v>14</v>
       </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54" s="2">
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2983,37 +2920,37 @@
       <c r="A55" s="1">
         <v>1</v>
       </c>
-      <c r="B55" s="2">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
         <v>60</v>
       </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
         <v>0.01</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="1">
         <v>24.6</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="1">
         <v>5.65</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="1">
         <v>39</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="1">
         <v>3</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3021,37 +2958,37 @@
       <c r="A56" s="1">
         <v>10</v>
       </c>
-      <c r="B56" s="2">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
         <v>66</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>2</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="1">
         <v>15.6</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="1">
         <v>6.15</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="1">
         <v>14</v>
       </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56" s="2">
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3059,37 +2996,37 @@
       <c r="A57" s="1">
         <v>45</v>
       </c>
-      <c r="B57" s="2">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
         <v>63</v>
       </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
         <v>0.15</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="1">
         <v>13</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="1">
         <v>4.57</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="1">
         <v>13</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="1">
         <v>1.08</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3097,37 +3034,37 @@
       <c r="A58" s="1">
         <v>22</v>
       </c>
-      <c r="B58" s="2">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
         <v>57</v>
       </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
         <v>0.13</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="1">
         <v>18.600000000000001</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="1">
         <v>4.37</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="1">
         <v>12.33</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="1">
         <v>1.37</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3135,37 +3072,37 @@
       <c r="A59" s="1">
         <v>53</v>
       </c>
-      <c r="B59" s="2">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
         <v>70</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>2</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
         <v>0.1</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="1">
         <v>5.3</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="1">
         <v>23</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3173,37 +3110,35 @@
       <c r="A60" s="1">
         <v>38</v>
       </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
         <v>68</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>2</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H60" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60">
+      <c r="H60" s="1"/>
+      <c r="I60" s="1">
         <v>4.41</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="1">
         <v>14</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="1">
         <v>1.167</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3211,37 +3146,37 @@
       <c r="A61" s="1">
         <v>26</v>
       </c>
-      <c r="B61" s="2">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
         <v>79</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>2</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
         <v>0.17</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="1">
         <v>11.9</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="1">
         <v>5.15</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="1">
         <v>10.5</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="1">
         <v>1.05</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3249,37 +3184,35 @@
       <c r="A62" s="1">
         <v>9</v>
       </c>
-      <c r="B62" s="2">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
         <v>73</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>2</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
         <v>0.12</v>
       </c>
-      <c r="H62" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62">
+      <c r="H62" s="1"/>
+      <c r="I62" s="1">
         <v>6.78</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="1">
         <v>16.670000000000002</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="1">
         <v>1.39</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3287,37 +3220,37 @@
       <c r="A63" s="1">
         <v>26</v>
       </c>
-      <c r="B63" s="2">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
         <v>72</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>2</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
         <v>0.187</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="1">
         <v>12</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="1">
         <v>5.0199999999999996</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="1">
         <v>13</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="1">
         <v>1.18</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3325,37 +3258,37 @@
       <c r="A64" s="1">
         <v>0.5</v>
       </c>
-      <c r="B64" s="2">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
         <v>59</v>
       </c>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
         <v>0.13</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="1">
         <v>4.96</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="1">
         <v>17.829999999999998</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="1">
         <v>1.37</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3363,37 +3296,37 @@
       <c r="A65" s="1">
         <v>12</v>
       </c>
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
         <v>67</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>2</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
         <v>0.11</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="1">
         <v>10.3</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="1">
         <v>4.68</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="1">
         <v>11</v>
       </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65" s="2">
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3401,37 +3334,37 @@
       <c r="A66" s="1">
         <v>49</v>
       </c>
-      <c r="B66" s="2">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
         <v>51</v>
       </c>
-      <c r="E66" s="2">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
         <v>0.16</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="1">
         <v>13.2</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="1">
         <v>5.26</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="1">
         <v>11</v>
       </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" s="2">
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3439,37 +3372,37 @@
       <c r="A67" s="1">
         <v>0.75</v>
       </c>
-      <c r="B67" s="2">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
         <v>50</v>
       </c>
-      <c r="E67" s="2">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="1">
         <v>11.4</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="1">
         <v>4.75</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="1">
         <v>10</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="1">
         <v>2.5</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3477,37 +3410,37 @@
       <c r="A68" s="1">
         <v>49</v>
       </c>
-      <c r="B68" s="2">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
         <v>70</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>2</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
         <v>0.25</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="1">
         <v>5.57</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="1">
         <v>5.5</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3515,37 +3448,37 @@
       <c r="A69" s="1">
         <v>47</v>
       </c>
-      <c r="B69" s="2">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
         <v>65</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>2</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
         <v>0.36</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="1">
         <v>5.78</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="1">
         <v>12</v>
       </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69" s="2">
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3553,37 +3486,37 @@
       <c r="A70" s="1">
         <v>41</v>
       </c>
-      <c r="B70" s="2">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
         <v>78</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>2</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
         <v>0.06</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="1">
         <v>5.62</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="1">
         <v>13.67</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="1">
         <v>1.367</v>
       </c>
-      <c r="L70" s="2">
+      <c r="L70" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3591,37 +3524,37 @@
       <c r="A71" s="1">
         <v>0.25</v>
       </c>
-      <c r="B71" s="2">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
         <v>86</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>2</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="1">
         <v>12.2</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="1">
         <v>5.2</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="1">
         <v>24</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L71" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3629,37 +3562,37 @@
       <c r="A72" s="1">
         <v>33</v>
       </c>
-      <c r="B72" s="2">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
         <v>56</v>
       </c>
-      <c r="E72" s="2">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
         <v>0.25</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="1">
         <v>11</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="1">
         <v>4.72</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="1">
         <v>11</v>
       </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72" s="2">
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3667,37 +3600,37 @@
       <c r="A73" s="1">
         <v>29</v>
       </c>
-      <c r="B73" s="2">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
         <v>60</v>
       </c>
-      <c r="E73" s="2">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
         <v>0.12</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="1">
         <v>4.3099999999999996</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="1">
         <v>15</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="1">
         <v>1.67</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3705,37 +3638,37 @@
       <c r="A74" s="1">
         <v>41</v>
       </c>
-      <c r="B74" s="2">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
         <v>59</v>
       </c>
-      <c r="E74" s="2">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="1">
         <v>7.5</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="1">
         <v>4.75</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="1">
         <v>13</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="1">
         <v>1.08</v>
       </c>
-      <c r="L74" s="2">
+      <c r="L74" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3743,37 +3676,37 @@
       <c r="A75" s="1">
         <v>26</v>
       </c>
-      <c r="B75" s="2">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
         <v>50</v>
       </c>
-      <c r="E75" s="2">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
         <v>0.06</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="1">
         <v>30.1</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="1">
         <v>5.95</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="1">
         <v>21.5</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="1">
         <v>2.39</v>
       </c>
-      <c r="L75" s="2">
+      <c r="L75" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3781,37 +3714,37 @@
       <c r="A76" s="1">
         <v>15</v>
       </c>
-      <c r="B76" s="2">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
         <v>54</v>
       </c>
-      <c r="E76" s="2">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
         <v>0.217</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="1">
         <v>17.899999999999999</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="1">
         <v>4.54</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="1">
         <v>16.5</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="1">
         <v>1.18</v>
       </c>
-      <c r="L76" s="2">
+      <c r="L76" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3819,37 +3752,37 @@
       <c r="A77" s="1">
         <v>0.25</v>
       </c>
-      <c r="B77" s="2">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
         <v>68</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>2</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
         <v>0.22</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="1">
         <v>21.7</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="1">
         <v>4.8499999999999996</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="1">
         <v>15</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L77" s="2">
+      <c r="L77" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3857,37 +3790,35 @@
       <c r="A78" s="1">
         <v>0.03</v>
       </c>
-      <c r="B78" s="2">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="2">
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1">
         <v>2</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
         <v>0.26</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="1">
         <v>4.7699999999999996</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="1">
         <v>21</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="1">
         <v>2.1</v>
       </c>
-      <c r="L78" s="2">
+      <c r="L78" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3895,37 +3826,37 @@
       <c r="A79" s="1">
         <v>12</v>
       </c>
-      <c r="B79" s="2">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
         <v>64</v>
       </c>
-      <c r="E79" s="2">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
         <v>0.2</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="1">
         <v>7.1</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="1">
         <v>4.58</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="1">
         <v>14</v>
       </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79" s="2">
+      <c r="K79" s="1">
+        <v>1</v>
+      </c>
+      <c r="L79" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3933,37 +3864,37 @@
       <c r="A80" s="1">
         <v>32</v>
       </c>
-      <c r="B80" s="2">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
         <v>63</v>
       </c>
-      <c r="E80" s="2">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
         <v>0.2</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="1">
         <v>5</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="1">
         <v>5.2</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="1">
         <v>8</v>
       </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80" s="2">
+      <c r="K80" s="1">
+        <v>1</v>
+      </c>
+      <c r="L80" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3971,37 +3902,37 @@
       <c r="A81" s="1">
         <v>32</v>
       </c>
-      <c r="B81" s="2">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
         <v>65</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <v>2</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
         <v>0.06</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="1">
         <v>23.6</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="1">
         <v>6.74</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="1">
         <v>12</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="L81" s="2">
+      <c r="L81" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4009,37 +3940,37 @@
       <c r="A82" s="1">
         <v>27</v>
       </c>
-      <c r="B82" s="2">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
         <v>54</v>
       </c>
-      <c r="E82" s="2">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="1">
         <v>16.8</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="1">
         <v>4.16</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="1">
         <v>18</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="1">
         <v>1.5</v>
       </c>
-      <c r="L82" s="2">
+      <c r="L82" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4047,37 +3978,37 @@
       <c r="A83" s="1">
         <v>23</v>
       </c>
-      <c r="B83" s="2">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
         <v>62</v>
       </c>
-      <c r="E83" s="2">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
         <v>0.25</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="1">
         <v>6</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="1">
         <v>4.4800000000000004</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="1">
         <v>11</v>
       </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83" s="2">
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4085,37 +4016,37 @@
       <c r="A84" s="1">
         <v>0.75</v>
       </c>
-      <c r="B84" s="2">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
         <v>78</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <v>2</v>
       </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
         <v>0.05</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="1">
         <v>10</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="1">
         <v>4.4400000000000004</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="1">
         <v>15</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="1">
         <v>1.36</v>
       </c>
-      <c r="L84" s="2">
+      <c r="L84" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4123,37 +4054,31 @@
       <c r="A85" s="1">
         <v>0.75</v>
       </c>
-      <c r="B85" s="2">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
         <v>61</v>
       </c>
-      <c r="E85" s="2">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" t="s">
-        <v>8</v>
-      </c>
-      <c r="I85" t="s">
-        <v>8</v>
-      </c>
-      <c r="J85">
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1">
         <v>28</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="1">
         <v>2.33</v>
       </c>
-      <c r="L85" s="2">
+      <c r="L85" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4161,37 +4086,37 @@
       <c r="A86" s="1">
         <v>34</v>
       </c>
-      <c r="B86" s="2">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
         <v>52</v>
       </c>
-      <c r="E86" s="2">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="1">
         <v>25</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="1">
         <v>6.21</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="1">
         <v>11.5</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L86" s="2">
+      <c r="L86" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4199,37 +4124,37 @@
       <c r="A87" s="1">
         <v>1</v>
       </c>
-      <c r="B87" s="2">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
         <v>73</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="1">
         <v>2</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
         <v>0.05</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="1">
         <v>14.8</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="1">
         <v>4.1399999999999997</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="1">
         <v>15.5</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="1">
         <v>1.41</v>
       </c>
-      <c r="L87" s="2">
+      <c r="L87" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4237,37 +4162,37 @@
       <c r="A88" s="1">
         <v>21</v>
       </c>
-      <c r="B88" s="2">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
         <v>70</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="1">
         <v>2</v>
       </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1">
         <v>0.16</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="1">
         <v>19.2</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="1">
         <v>5.25</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="1">
         <v>11</v>
       </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88" s="2">
+      <c r="K88" s="1">
+        <v>1</v>
+      </c>
+      <c r="L88" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4275,37 +4200,37 @@
       <c r="A89" s="1">
         <v>55</v>
       </c>
-      <c r="B89" s="2">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
         <v>55</v>
       </c>
-      <c r="E89" s="2">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="1">
         <v>5.5</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="1">
         <v>4.4800000000000004</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="1">
         <v>22</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="1">
         <v>1.83</v>
       </c>
-      <c r="L89" s="2">
+      <c r="L89" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4313,37 +4238,37 @@
       <c r="A90" s="1">
         <v>15</v>
       </c>
-      <c r="B90" s="2">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
         <v>60</v>
       </c>
-      <c r="E90" s="2">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
         <v>0.18</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="1">
         <v>4.5599999999999996</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="1">
         <v>13.5</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="1">
         <v>1.04</v>
       </c>
-      <c r="L90" s="2">
+      <c r="L90" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4351,37 +4276,37 @@
       <c r="A91" s="1">
         <v>0.5</v>
       </c>
-      <c r="B91" s="2">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
         <v>67</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="1">
         <v>2</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
         <v>0.155</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="1">
         <v>11.3</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="1">
         <v>5.16</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="1">
         <v>13</v>
       </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91" s="2">
+      <c r="K91" s="1">
+        <v>1</v>
+      </c>
+      <c r="L91" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4389,37 +4314,37 @@
       <c r="A92" s="1">
         <v>35</v>
       </c>
-      <c r="B92" s="2">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
         <v>64</v>
       </c>
-      <c r="E92" s="2">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
         <v>0.3</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="1">
         <v>6.6</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="1">
         <v>4.3600000000000003</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="1">
         <v>14</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="1">
         <v>1.27</v>
       </c>
-      <c r="L92" s="2">
+      <c r="L92" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4427,37 +4352,37 @@
       <c r="A93" s="1">
         <v>53</v>
       </c>
-      <c r="B93" s="2">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
         <v>59</v>
       </c>
-      <c r="E93" s="2">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="1">
         <v>9.1</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="1">
         <v>4.04</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="1">
         <v>9</v>
       </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93" s="2">
+      <c r="K93" s="1">
+        <v>1</v>
+      </c>
+      <c r="L93" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4465,37 +4390,37 @@
       <c r="A94" s="1">
         <v>33</v>
       </c>
-      <c r="B94" s="2">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
         <v>46</v>
       </c>
-      <c r="E94" s="2">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
         <v>0.27200000000000002</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="1">
         <v>16.5</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="1">
         <v>5.36</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="1">
         <v>12.67</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="1">
         <v>1.06</v>
       </c>
-      <c r="L94" s="2">
+      <c r="L94" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4503,37 +4428,37 @@
       <c r="A95" s="1">
         <v>33</v>
       </c>
-      <c r="B95" s="2">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
         <v>63</v>
       </c>
-      <c r="E95" s="2">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
         <v>0.25</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="1">
         <v>5.6</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="1">
         <v>3.87</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="1">
         <v>18</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="1">
         <v>1.5</v>
       </c>
-      <c r="L95" s="2">
+      <c r="L95" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4541,37 +4466,37 @@
       <c r="A96" s="1">
         <v>40</v>
       </c>
-      <c r="B96" s="2">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
         <v>74</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="1">
         <v>2</v>
       </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
         <v>0.2</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="1">
         <v>4.8</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="1">
         <v>4.5599999999999996</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="1">
         <v>12.5</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="1">
         <v>1.04</v>
       </c>
-      <c r="L96" s="2">
+      <c r="L96" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4579,37 +4504,37 @@
       <c r="A97" s="1">
         <v>33</v>
       </c>
-      <c r="B97" s="2">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
         <v>59</v>
       </c>
-      <c r="E97" s="2">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
         <v>0.5</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="1">
         <v>9.1</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="1">
         <v>3.42</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="1">
         <v>18</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="1">
         <v>1.5</v>
       </c>
-      <c r="L97" s="2">
+      <c r="L97" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4617,37 +4542,37 @@
       <c r="A98" s="1">
         <v>5</v>
       </c>
-      <c r="B98" s="2">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
         <v>65</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="1">
         <v>2</v>
       </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
         <v>0.16</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="1">
         <v>8.5</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="1">
         <v>5.47</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="1">
         <v>16</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="1">
         <v>1.45</v>
       </c>
-      <c r="L98" s="2">
+      <c r="L98" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4655,37 +4580,37 @@
       <c r="A99" s="1">
         <v>4</v>
       </c>
-      <c r="B99" s="2">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
         <v>58</v>
       </c>
-      <c r="E99" s="2">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
         <v>0.17</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="1">
         <v>28.9</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="1">
         <v>6.73</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="1">
         <v>26.08</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="L99" s="2">
+      <c r="L99" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4693,37 +4618,35 @@
       <c r="A100" s="1">
         <v>31</v>
       </c>
-      <c r="B100" s="2">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
+      <c r="B100" s="1">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
         <v>53</v>
       </c>
-      <c r="E100" s="2">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
         <v>0.17</v>
       </c>
-      <c r="H100" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100">
+      <c r="H100" s="1"/>
+      <c r="I100" s="1">
         <v>4.6900000000000004</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="1">
         <v>10</v>
       </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100" s="2">
+      <c r="K100" s="1">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4731,37 +4654,35 @@
       <c r="A101" s="1">
         <v>33</v>
       </c>
-      <c r="B101" s="2">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1">
         <v>66</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="1">
         <v>2</v>
       </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
         <v>0.2</v>
       </c>
-      <c r="H101" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101">
+      <c r="H101" s="1"/>
+      <c r="I101" s="1">
         <v>4.2300000000000004</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="1">
         <v>12</v>
       </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="L101" s="2">
+      <c r="K101" s="1">
+        <v>1</v>
+      </c>
+      <c r="L101" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4769,37 +4690,37 @@
       <c r="A102" s="1">
         <v>22</v>
       </c>
-      <c r="B102" s="2">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1">
         <v>70</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="1">
         <v>2</v>
       </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
         <v>0.38</v>
       </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
         <v>4.55</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="1">
         <v>10</v>
       </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102" s="2">
+      <c r="K102" s="1">
+        <v>1</v>
+      </c>
+      <c r="L102" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4807,37 +4728,37 @@
       <c r="A103" s="1">
         <v>25</v>
       </c>
-      <c r="B103" s="2">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
         <v>62</v>
       </c>
-      <c r="E103" s="2">
-        <v>1</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
         <v>0.25800000000000001</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="1">
         <v>11.8</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="1">
         <v>4.87</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="1">
         <v>11</v>
       </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103" s="2">
+      <c r="K103" s="1">
+        <v>1</v>
+      </c>
+      <c r="L103" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4845,37 +4766,37 @@
       <c r="A104" s="1">
         <v>1.25</v>
       </c>
-      <c r="B104" s="2">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
         <v>63</v>
       </c>
-      <c r="E104" s="2">
-        <v>1</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
         <v>0.3</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="1">
         <v>6.9</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="1">
         <v>3.52</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="1">
         <v>18.16</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="1">
         <v>1.51</v>
       </c>
-      <c r="L104" s="2">
+      <c r="L104" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4883,37 +4804,37 @@
       <c r="A105" s="1">
         <v>24</v>
       </c>
-      <c r="B105" s="2">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
         <v>59</v>
       </c>
-      <c r="E105" s="2">
-        <v>1</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
         <v>0.17</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="1">
         <v>14.3</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="1">
         <v>5.49</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="1">
         <v>13.5</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="1">
         <v>1.5</v>
       </c>
-      <c r="L105" s="2">
+      <c r="L105" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4921,37 +4842,37 @@
       <c r="A106" s="1">
         <v>25</v>
       </c>
-      <c r="B106" s="2">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
         <v>57</v>
       </c>
-      <c r="E106" s="2">
-        <v>1</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
         <v>0.22800000000000001</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="1">
         <v>4.29</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="1">
         <v>11</v>
       </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="L106" s="2">
+      <c r="K106" s="1">
+        <v>1</v>
+      </c>
+      <c r="L106" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4959,37 +4880,37 @@
       <c r="A107" s="1">
         <v>24</v>
       </c>
-      <c r="B107" s="2">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
         <v>57</v>
       </c>
-      <c r="E107" s="2">
-        <v>1</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="1">
         <v>7</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="1">
         <v>4.12</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="1">
         <v>13.5</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="1">
         <v>1.23</v>
       </c>
-      <c r="L107" s="2">
+      <c r="L107" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4997,37 +4918,37 @@
       <c r="A108" s="1">
         <v>0.75</v>
       </c>
-      <c r="B108" s="2">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
         <v>78</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="1">
         <v>2</v>
       </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
         <v>0.23</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="1">
         <v>40</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="1">
         <v>6.23</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="1">
         <v>14</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="1">
         <v>1.4</v>
       </c>
-      <c r="L108" s="2">
+      <c r="L108" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5035,37 +4956,37 @@
       <c r="A109" s="1">
         <v>3</v>
       </c>
-      <c r="B109" s="2">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109">
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
         <v>62</v>
       </c>
-      <c r="E109" s="2">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
         <v>0.26</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="1">
         <v>7.6</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="1">
         <v>4.42</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="1">
         <v>14</v>
       </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="L109" s="2">
+      <c r="K109" s="1">
+        <v>1</v>
+      </c>
+      <c r="L109" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5073,37 +4994,37 @@
       <c r="A110" s="1">
         <v>27</v>
       </c>
-      <c r="B110" s="2">
-        <v>1</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
         <v>62</v>
       </c>
-      <c r="E110" s="2">
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
         <v>0.22</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="1">
         <v>12.1</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="1">
         <v>3.92</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="1">
         <v>11</v>
       </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="L110" s="2">
+      <c r="K110" s="1">
+        <v>1</v>
+      </c>
+      <c r="L110" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5111,37 +5032,37 @@
       <c r="A111" s="1">
         <v>13</v>
       </c>
-      <c r="B111" s="2">
-        <v>1</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
         <v>66</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="1">
         <v>2</v>
       </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
         <v>0.24</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="1">
         <v>13.6</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="1">
         <v>4.38</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="1">
         <v>22</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L111" s="2">
+      <c r="L111" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5149,37 +5070,37 @@
       <c r="A112" s="1">
         <v>36</v>
       </c>
-      <c r="B112" s="2">
-        <v>1</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
+      <c r="B112" s="1">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
         <v>61</v>
       </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
         <v>0.27</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="1">
         <v>9</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="1">
         <v>4.0599999999999996</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="1">
         <v>12</v>
       </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="L112" s="2">
+      <c r="K112" s="1">
+        <v>1</v>
+      </c>
+      <c r="L112" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5187,37 +5108,37 @@
       <c r="A113" s="1">
         <v>25</v>
       </c>
-      <c r="B113" s="2">
-        <v>1</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
         <v>59</v>
       </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113">
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1">
         <v>0.4</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="1">
         <v>5.36</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="1">
         <v>12</v>
       </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="L113" s="2">
+      <c r="K113" s="1">
+        <v>1</v>
+      </c>
+      <c r="L113" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5225,37 +5146,37 @@
       <c r="A114" s="1">
         <v>27</v>
       </c>
-      <c r="B114" s="2">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
         <v>57</v>
       </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="1">
         <v>9.4</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="1">
         <v>4.7699999999999996</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="1">
         <v>9</v>
       </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="L114" s="2">
+      <c r="K114" s="1">
+        <v>1</v>
+      </c>
+      <c r="L114" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5263,37 +5184,37 @@
       <c r="A115" s="1">
         <v>34</v>
       </c>
-      <c r="B115" s="2">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
         <v>62</v>
       </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115">
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1">
         <v>0.19</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="1">
         <v>28.9</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="1">
         <v>6.63</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="1">
         <v>19.5</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="1">
         <v>1.95</v>
       </c>
-      <c r="L115" s="2">
+      <c r="L115" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5301,37 +5222,35 @@
       <c r="A116" s="1">
         <v>37</v>
       </c>
-      <c r="B116" s="2">
-        <v>1</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" s="2">
+      <c r="B116" s="1">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1">
         <v>2</v>
       </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
         <v>0.26</v>
       </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
         <v>4.38</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="1">
         <v>9</v>
       </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-      <c r="L116" s="2">
+      <c r="K116" s="1">
+        <v>1</v>
+      </c>
+      <c r="L116" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5339,37 +5258,37 @@
       <c r="A117" s="1">
         <v>34</v>
       </c>
-      <c r="B117" s="2">
-        <v>1</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117">
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
         <v>54</v>
       </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
         <v>0.43</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="1">
         <v>4.79</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="1">
         <v>10</v>
       </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="L117" s="2">
+      <c r="K117" s="1">
+        <v>1</v>
+      </c>
+      <c r="L117" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5377,37 +5296,37 @@
       <c r="A118" s="1">
         <v>28</v>
       </c>
-      <c r="B118" s="2">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
         <v>62</v>
       </c>
-      <c r="E118" s="2">
-        <v>1</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118">
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1">
         <v>0.24</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="1">
         <v>28.6</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="1">
         <v>5.86</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="1">
         <v>21.5</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="1">
         <v>1.95</v>
       </c>
-      <c r="L118" s="2">
+      <c r="L118" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5415,37 +5334,35 @@
       <c r="A119" s="1">
         <v>28</v>
       </c>
-      <c r="B119" s="2">
-        <v>1</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="2">
+      <c r="B119" s="1">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1">
         <v>2</v>
       </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
         <v>0.23</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="1">
         <v>19.100000000000001</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="1">
         <v>5.49</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="1">
         <v>12</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="1">
         <v>1.2</v>
       </c>
-      <c r="L119" s="2">
+      <c r="L119" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5453,37 +5370,37 @@
       <c r="A120" s="1">
         <v>17</v>
       </c>
-      <c r="B120" s="2">
-        <v>1</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1">
         <v>64</v>
       </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1">
         <v>0.15</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="1">
         <v>6.6</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="1">
         <v>4.17</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="1">
         <v>14</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="1">
         <v>1.27</v>
       </c>
-      <c r="L120" s="2">
+      <c r="L120" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5491,37 +5408,37 @@
       <c r="A121" s="1">
         <v>38</v>
       </c>
-      <c r="B121" s="2">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1">
         <v>57</v>
       </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
         <v>0.12</v>
       </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="1">
         <v>16.5</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="1">
         <v>1.375</v>
       </c>
-      <c r="L121" s="2">
+      <c r="L121" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5529,37 +5446,37 @@
       <c r="A122" s="1">
         <v>31</v>
       </c>
-      <c r="B122" s="2">
-        <v>1</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
+      <c r="B122" s="1">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1">
         <v>61</v>
       </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1">
         <v>0.18</v>
       </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
         <v>4.4800000000000004</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="1">
         <v>11</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="1">
         <v>1.375</v>
       </c>
-      <c r="L122" s="2">
+      <c r="L122" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5567,37 +5484,37 @@
       <c r="A123" s="1">
         <v>12</v>
       </c>
-      <c r="B123" s="2">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1">
         <v>61</v>
       </c>
-      <c r="E123" s="2">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123">
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1">
         <v>0.19</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="1">
         <v>13.2</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="1">
         <v>5.04</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="1">
         <v>19</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="1">
         <v>1.73</v>
       </c>
-      <c r="L123" s="2">
+      <c r="L123" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5605,37 +5522,37 @@
       <c r="A124" s="1">
         <v>36</v>
       </c>
-      <c r="B124" s="2">
-        <v>1</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
+      <c r="B124" s="1">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
         <v>48</v>
       </c>
-      <c r="E124" s="2">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
         <v>0.15</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="1">
         <v>12</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="1">
         <v>3.66</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="1">
         <v>10</v>
       </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
-      <c r="L124" s="2">
+      <c r="K124" s="1">
+        <v>1</v>
+      </c>
+      <c r="L124" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5643,37 +5560,35 @@
       <c r="A125" s="1">
         <v>17</v>
       </c>
-      <c r="B125" s="2">
-        <v>1</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="2">
+      <c r="B125" s="1">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1">
         <v>2</v>
       </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
         <v>0.09</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="1">
         <v>6.8</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="1">
         <v>4.96</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="1">
         <v>13</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="1">
         <v>1.08</v>
       </c>
-      <c r="L125" s="2">
+      <c r="L125" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5681,37 +5596,37 @@
       <c r="A126" s="1">
         <v>21</v>
       </c>
-      <c r="B126" s="2">
-        <v>1</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
+      <c r="B126" s="1">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
         <v>61</v>
       </c>
-      <c r="E126" s="2">
-        <v>1</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="1">
         <v>25.5</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="1">
         <v>5.16</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="1">
         <v>14</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="1">
         <v>1.27</v>
       </c>
-      <c r="L126" s="2">
+      <c r="L126" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5719,37 +5634,37 @@
       <c r="A127" s="1">
         <v>7.5</v>
       </c>
-      <c r="B127" s="2">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127">
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
         <v>64</v>
       </c>
-      <c r="E127" s="2">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1">
         <v>0.24</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="1">
         <v>12.9</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="1">
         <v>4.72</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="1">
         <v>12</v>
       </c>
-      <c r="K127">
-        <v>1</v>
-      </c>
-      <c r="L127" s="2">
+      <c r="K127" s="1">
+        <v>1</v>
+      </c>
+      <c r="L127" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5757,37 +5672,37 @@
       <c r="A128" s="1">
         <v>41</v>
       </c>
-      <c r="B128" s="2">
-        <v>1</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
+      <c r="B128" s="1">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1">
         <v>64</v>
       </c>
-      <c r="E128" s="2">
-        <v>1</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
+      <c r="G128" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="1">
         <v>5.4</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="1">
         <v>5.47</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="1">
         <v>11</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L128" s="2">
+      <c r="L128" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5795,37 +5710,37 @@
       <c r="A129" s="1">
         <v>36</v>
       </c>
-      <c r="B129" s="2">
-        <v>1</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
         <v>69</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="1">
         <v>2</v>
       </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1">
         <v>0.2</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="1">
         <v>7</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="1">
         <v>5.05</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="1">
         <v>14.5</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="1">
         <v>1.21</v>
       </c>
-      <c r="L129" s="2">
+      <c r="L129" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5833,37 +5748,37 @@
       <c r="A130" s="1">
         <v>22</v>
       </c>
-      <c r="B130" s="2">
-        <v>1</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1">
         <v>57</v>
       </c>
-      <c r="E130" s="2">
-        <v>1</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="1">
         <v>4.3600000000000003</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="1">
         <v>15</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="1">
         <v>1.36</v>
       </c>
-      <c r="L130" s="2">
+      <c r="L130" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5871,41 +5786,43 @@
       <c r="A131" s="1">
         <v>20</v>
       </c>
-      <c r="B131" s="2">
-        <v>1</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
         <v>62</v>
       </c>
-      <c r="E131" s="2">
-        <v>1</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1">
         <v>0.15</v>
       </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
         <v>4.51</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="1">
         <v>15.5</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="1">
         <v>1.409</v>
       </c>
-      <c r="L131" s="2">
+      <c r="L131" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L131" xr:uid="{B9CDBFAC-6DD5-46C1-A34C-88924BB573CA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>